--- a/Data/Hyp & inclusion_Hyp/inclusion_Hyp.xlsx
+++ b/Data/Hyp & inclusion_Hyp/inclusion_Hyp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EliseSchramkowski\Documents\GitHub\thesis\Data sets\Hyp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EliseSchramkowski\Documents\GitHub\thesis\Data\Hyp &amp; inclusion_Hyp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A25D738-15B1-4B11-A35B-1D14FE72FE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA04E99-BB36-4C4B-8BFA-30D6465581EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15552" yWindow="288" windowWidth="15120" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15600" yWindow="3120" windowWidth="15120" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Articles" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="656">
   <si>
     <t>Journal</t>
   </si>
@@ -436,9 +436,6 @@
   </si>
   <si>
     <t>Req_stat</t>
-  </si>
-  <si>
-    <t>Res_hyp</t>
   </si>
   <si>
     <t>Comments</t>
@@ -2674,10 +2671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M325"/>
+  <dimension ref="A1:L325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2685,15 +2682,15 @@
     <col min="1" max="2" width="8.88671875" style="5"/>
     <col min="5" max="5" width="10.5546875" customWidth="1"/>
     <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="8" max="11" width="8.88671875" style="5"/>
+    <col min="8" max="10" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="198" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="198" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -2711,24 +2708,21 @@
         <v>132</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -2751,14 +2745,11 @@
       <c r="I2" s="4">
         <v>1</v>
       </c>
-      <c r="J2" s="4">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
@@ -2782,16 +2773,13 @@
         <v>1</v>
       </c>
       <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4">
         <v>2</v>
       </c>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>10</v>
@@ -2815,19 +2803,16 @@
         <v>1</v>
       </c>
       <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4">
-        <v>3</v>
-      </c>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -2848,19 +2833,16 @@
         <v>1</v>
       </c>
       <c r="I5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4">
         <v>4</v>
       </c>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -2881,16 +2863,13 @@
         <v>1</v>
       </c>
       <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
         <v>5</v>
       </c>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>11</v>
@@ -2914,19 +2893,16 @@
         <v>1</v>
       </c>
       <c r="I7" s="4">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4">
         <v>6</v>
       </c>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>3</v>
@@ -2947,19 +2923,16 @@
         <v>1</v>
       </c>
       <c r="I8" s="4">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4">
         <v>7</v>
       </c>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>3</v>
@@ -2980,19 +2953,16 @@
         <v>1</v>
       </c>
       <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4">
         <v>8</v>
       </c>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>3</v>
@@ -3013,16 +2983,13 @@
         <v>1</v>
       </c>
       <c r="I10" s="4">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4">
         <v>9</v>
       </c>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>14</v>
@@ -3046,16 +3013,13 @@
         <v>1</v>
       </c>
       <c r="I11" s="4">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4">
         <v>10</v>
       </c>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>21</v>
@@ -3079,19 +3043,16 @@
         <v>1</v>
       </c>
       <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4">
         <v>11</v>
       </c>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>3</v>
@@ -3112,19 +3073,16 @@
         <v>1</v>
       </c>
       <c r="I13" s="4">
-        <v>1</v>
-      </c>
-      <c r="J13" s="4">
         <v>12</v>
       </c>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>23</v>
@@ -3145,19 +3103,16 @@
         <v>1</v>
       </c>
       <c r="I14" s="4">
-        <v>1</v>
-      </c>
-      <c r="J14" s="4">
         <v>13</v>
       </c>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>23</v>
@@ -3178,16 +3133,13 @@
         <v>1</v>
       </c>
       <c r="I15" s="4">
-        <v>1</v>
-      </c>
-      <c r="J15" s="4">
         <v>14</v>
       </c>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>28</v>
@@ -3211,19 +3163,16 @@
         <v>1</v>
       </c>
       <c r="I16" s="4">
-        <v>1</v>
-      </c>
-      <c r="J16" s="4">
         <v>15</v>
       </c>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>23</v>
@@ -3244,19 +3193,16 @@
         <v>1</v>
       </c>
       <c r="I17" s="4">
-        <v>1</v>
-      </c>
-      <c r="J17" s="4">
         <v>16</v>
       </c>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>23</v>
@@ -3277,16 +3223,13 @@
         <v>1</v>
       </c>
       <c r="I18" s="4">
-        <v>1</v>
-      </c>
-      <c r="J18" s="4">
         <v>17</v>
       </c>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>33</v>
@@ -3310,19 +3253,16 @@
         <v>1</v>
       </c>
       <c r="I19" s="4">
-        <v>1</v>
-      </c>
-      <c r="J19" s="4">
         <v>18</v>
       </c>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>36</v>
@@ -3343,19 +3283,16 @@
         <v>1</v>
       </c>
       <c r="I20" s="4">
-        <v>1</v>
-      </c>
-      <c r="J20" s="4">
         <v>19</v>
       </c>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>36</v>
@@ -3376,19 +3313,16 @@
         <v>1</v>
       </c>
       <c r="I21" s="4">
-        <v>1</v>
-      </c>
-      <c r="J21" s="4">
         <v>20</v>
       </c>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>3</v>
@@ -3409,19 +3343,16 @@
         <v>1</v>
       </c>
       <c r="I22" s="4">
-        <v>1</v>
-      </c>
-      <c r="J22" s="4">
         <v>21</v>
       </c>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>3</v>
@@ -3442,16 +3373,13 @@
         <v>1</v>
       </c>
       <c r="I23" s="4">
-        <v>1</v>
-      </c>
-      <c r="J23" s="4">
         <v>22</v>
       </c>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>55</v>
@@ -3475,16 +3403,13 @@
         <v>1</v>
       </c>
       <c r="I24" s="4">
-        <v>1</v>
-      </c>
-      <c r="J24" s="4">
         <v>23</v>
       </c>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>56</v>
@@ -3508,16 +3433,13 @@
         <v>1</v>
       </c>
       <c r="I25" s="4">
-        <v>1</v>
-      </c>
-      <c r="J25" s="4">
         <v>24</v>
       </c>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>59</v>
@@ -3541,19 +3463,16 @@
         <v>1</v>
       </c>
       <c r="I26" s="4">
-        <v>1</v>
-      </c>
-      <c r="J26" s="4">
         <v>25</v>
       </c>
-      <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>3</v>
@@ -3574,19 +3493,16 @@
         <v>1</v>
       </c>
       <c r="I27" s="4">
-        <v>1</v>
-      </c>
-      <c r="J27" s="4">
         <v>26</v>
       </c>
-      <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>3</v>
@@ -3607,19 +3523,16 @@
         <v>1</v>
       </c>
       <c r="I28" s="4">
-        <v>1</v>
-      </c>
-      <c r="J28" s="4">
         <v>27</v>
       </c>
-      <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>3</v>
@@ -3640,19 +3553,16 @@
         <v>1</v>
       </c>
       <c r="I29" s="4">
-        <v>1</v>
-      </c>
-      <c r="J29" s="4">
         <v>28</v>
       </c>
-      <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>3</v>
@@ -3673,19 +3583,16 @@
         <v>1</v>
       </c>
       <c r="I30" s="4">
-        <v>1</v>
-      </c>
-      <c r="J30" s="4">
         <v>29</v>
       </c>
-      <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>3</v>
@@ -3706,16 +3613,13 @@
         <v>1</v>
       </c>
       <c r="I31" s="4">
-        <v>1</v>
-      </c>
-      <c r="J31" s="4">
         <v>30</v>
       </c>
-      <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>73</v>
@@ -3739,19 +3643,16 @@
         <v>1</v>
       </c>
       <c r="I32" s="4">
-        <v>1</v>
-      </c>
-      <c r="J32" s="4">
         <v>31</v>
       </c>
-      <c r="K32" s="4"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>23</v>
@@ -3772,19 +3673,16 @@
         <v>1</v>
       </c>
       <c r="I33" s="4">
-        <v>1</v>
-      </c>
-      <c r="J33" s="4">
         <v>32</v>
       </c>
-      <c r="K33" s="4"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>23</v>
@@ -3805,19 +3703,16 @@
         <v>1</v>
       </c>
       <c r="I34" s="4">
-        <v>1</v>
-      </c>
-      <c r="J34" s="4">
         <v>33</v>
       </c>
-      <c r="K34" s="4"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>3</v>
@@ -3838,16 +3733,13 @@
         <v>1</v>
       </c>
       <c r="I35" s="4">
-        <v>1</v>
-      </c>
-      <c r="J35" s="4">
         <v>34</v>
       </c>
-      <c r="K35" s="4"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>81</v>
@@ -3871,16 +3763,13 @@
         <v>1</v>
       </c>
       <c r="I36" s="4">
-        <v>1</v>
-      </c>
-      <c r="J36" s="4">
         <v>35</v>
       </c>
-      <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>10</v>
@@ -3904,19 +3793,16 @@
         <v>1</v>
       </c>
       <c r="I37" s="4">
-        <v>1</v>
-      </c>
-      <c r="J37" s="4">
         <v>36</v>
       </c>
-      <c r="K37" s="4"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>36</v>
@@ -3937,19 +3823,16 @@
         <v>1</v>
       </c>
       <c r="I38" s="4">
-        <v>1</v>
-      </c>
-      <c r="J38" s="4">
         <v>37</v>
       </c>
-      <c r="K38" s="4"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>36</v>
@@ -3970,16 +3853,13 @@
         <v>1</v>
       </c>
       <c r="I39" s="4">
-        <v>1</v>
-      </c>
-      <c r="J39" s="4">
         <v>38</v>
       </c>
-      <c r="K39" s="4"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>98</v>
@@ -4003,19 +3883,16 @@
         <v>1</v>
       </c>
       <c r="I40" s="4">
-        <v>1</v>
-      </c>
-      <c r="J40" s="4">
         <v>39</v>
       </c>
-      <c r="K40" s="4"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>199</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>3</v>
@@ -4036,19 +3913,16 @@
         <v>1</v>
       </c>
       <c r="I41" s="4">
-        <v>1</v>
-      </c>
-      <c r="J41" s="4">
         <v>40</v>
       </c>
-      <c r="K41" s="4"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>3</v>
@@ -4069,16 +3943,13 @@
         <v>1</v>
       </c>
       <c r="I42" s="4">
-        <v>1</v>
-      </c>
-      <c r="J42" s="4">
         <v>41</v>
       </c>
-      <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>99</v>
@@ -4102,19 +3973,16 @@
         <v>1</v>
       </c>
       <c r="I43" s="4">
-        <v>1</v>
-      </c>
-      <c r="J43" s="4">
         <v>42</v>
       </c>
-      <c r="K43" s="4"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>204</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>3</v>
@@ -4135,19 +4003,16 @@
         <v>1</v>
       </c>
       <c r="I44" s="4">
-        <v>1</v>
-      </c>
-      <c r="J44" s="4">
         <v>43</v>
       </c>
-      <c r="K44" s="4"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>3</v>
@@ -4168,19 +4033,16 @@
         <v>1</v>
       </c>
       <c r="I45" s="4">
-        <v>1</v>
-      </c>
-      <c r="J45" s="4">
         <v>44</v>
       </c>
-      <c r="K45" s="4"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>208</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>3</v>
@@ -4201,19 +4063,16 @@
         <v>1</v>
       </c>
       <c r="I46" s="4">
-        <v>1</v>
-      </c>
-      <c r="J46" s="4">
         <v>45</v>
       </c>
-      <c r="K46" s="4"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>3</v>
@@ -4234,19 +4093,16 @@
         <v>1</v>
       </c>
       <c r="I47" s="4">
-        <v>1</v>
-      </c>
-      <c r="J47" s="4">
         <v>46</v>
       </c>
-      <c r="K47" s="4"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>3</v>
@@ -4267,19 +4123,16 @@
         <v>1</v>
       </c>
       <c r="I48" s="4">
-        <v>1</v>
-      </c>
-      <c r="J48" s="4">
         <v>47</v>
       </c>
-      <c r="K48" s="4"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>3</v>
@@ -4300,19 +4153,16 @@
         <v>1</v>
       </c>
       <c r="I49" s="4">
-        <v>1</v>
-      </c>
-      <c r="J49" s="4">
         <v>48</v>
       </c>
-      <c r="K49" s="4"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>3</v>
@@ -4333,19 +4183,16 @@
         <v>1</v>
       </c>
       <c r="I50" s="4">
-        <v>1</v>
-      </c>
-      <c r="J50" s="4">
         <v>49</v>
       </c>
-      <c r="K50" s="4"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>3</v>
@@ -4366,19 +4213,16 @@
         <v>1</v>
       </c>
       <c r="I51" s="4">
-        <v>1</v>
-      </c>
-      <c r="J51" s="4">
         <v>50</v>
       </c>
-      <c r="K51" s="4"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>3</v>
@@ -4399,19 +4243,16 @@
         <v>1</v>
       </c>
       <c r="I52" s="4">
-        <v>1</v>
-      </c>
-      <c r="J52" s="4">
         <v>51</v>
       </c>
-      <c r="K52" s="4"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>222</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>3</v>
@@ -4432,19 +4273,16 @@
         <v>1</v>
       </c>
       <c r="I53" s="4">
-        <v>1</v>
-      </c>
-      <c r="J53" s="4">
         <v>52</v>
       </c>
-      <c r="K53" s="4"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>3</v>
@@ -4465,19 +4303,16 @@
         <v>1</v>
       </c>
       <c r="I54" s="4">
-        <v>1</v>
-      </c>
-      <c r="J54" s="4">
         <v>53</v>
       </c>
-      <c r="K54" s="4"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>3</v>
@@ -4498,19 +4333,16 @@
         <v>1</v>
       </c>
       <c r="I55" s="4">
-        <v>1</v>
-      </c>
-      <c r="J55" s="4">
         <v>54</v>
       </c>
-      <c r="K55" s="4"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>3</v>
@@ -4531,19 +4363,16 @@
         <v>1</v>
       </c>
       <c r="I56" s="4">
-        <v>1</v>
-      </c>
-      <c r="J56" s="4">
         <v>55</v>
       </c>
-      <c r="K56" s="4"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>3</v>
@@ -4564,19 +4393,16 @@
         <v>1</v>
       </c>
       <c r="I57" s="4">
-        <v>1</v>
-      </c>
-      <c r="J57" s="4">
         <v>56</v>
       </c>
-      <c r="K57" s="4"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>231</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>3</v>
@@ -4597,19 +4423,16 @@
         <v>1</v>
       </c>
       <c r="I58" s="4">
-        <v>1</v>
-      </c>
-      <c r="J58" s="4">
         <v>57</v>
       </c>
-      <c r="K58" s="4"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>23</v>
@@ -4630,19 +4453,16 @@
         <v>1</v>
       </c>
       <c r="I59" s="4">
-        <v>1</v>
-      </c>
-      <c r="J59" s="4">
         <v>58</v>
       </c>
-      <c r="K59" s="4"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>23</v>
@@ -4663,19 +4483,16 @@
         <v>1</v>
       </c>
       <c r="I60" s="4">
-        <v>1</v>
-      </c>
-      <c r="J60" s="4">
         <v>59</v>
       </c>
-      <c r="K60" s="4"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>23</v>
@@ -4696,16 +4513,13 @@
         <v>1</v>
       </c>
       <c r="I61" s="4">
-        <v>1</v>
-      </c>
-      <c r="J61" s="4">
         <v>60</v>
       </c>
-      <c r="K61" s="4"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>6</v>
@@ -4729,19 +4543,16 @@
         <v>1</v>
       </c>
       <c r="I62" s="4">
-        <v>1</v>
-      </c>
-      <c r="J62" s="4">
         <v>61</v>
       </c>
-      <c r="K62" s="4"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>240</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>23</v>
@@ -4762,19 +4573,16 @@
         <v>1</v>
       </c>
       <c r="I63" s="4">
-        <v>1</v>
-      </c>
-      <c r="J63" s="4">
         <v>62</v>
       </c>
-      <c r="K63" s="4"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>242</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>23</v>
@@ -4795,19 +4603,16 @@
         <v>1</v>
       </c>
       <c r="I64" s="4">
-        <v>1</v>
-      </c>
-      <c r="J64" s="4">
         <v>63</v>
       </c>
-      <c r="K64" s="4"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>23</v>
@@ -4828,16 +4633,13 @@
         <v>1</v>
       </c>
       <c r="I65" s="4">
-        <v>1</v>
-      </c>
-      <c r="J65" s="4">
         <v>64</v>
       </c>
-      <c r="K65" s="4"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>115</v>
@@ -4861,19 +4663,16 @@
         <v>1</v>
       </c>
       <c r="I66" s="4">
-        <v>1</v>
-      </c>
-      <c r="J66" s="4">
         <v>65</v>
       </c>
-      <c r="K66" s="4"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>245</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>246</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>23</v>
@@ -4894,19 +4693,16 @@
         <v>1</v>
       </c>
       <c r="I67" s="4">
-        <v>1</v>
-      </c>
-      <c r="J67" s="4">
         <v>66</v>
       </c>
-      <c r="K67" s="4"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>3</v>
@@ -4927,19 +4723,16 @@
         <v>1</v>
       </c>
       <c r="I68" s="4">
-        <v>1</v>
-      </c>
-      <c r="J68" s="4">
         <v>67</v>
       </c>
-      <c r="K68" s="4"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>3</v>
@@ -4960,20 +4753,17 @@
         <v>1</v>
       </c>
       <c r="I69" s="4">
-        <v>1</v>
-      </c>
-      <c r="J69" s="4">
         <f>68</f>
         <v>68</v>
       </c>
-      <c r="K69" s="4"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>3</v>
@@ -4994,16 +4784,13 @@
         <v>1</v>
       </c>
       <c r="I70" s="4">
-        <v>1</v>
-      </c>
-      <c r="J70" s="4">
         <v>69</v>
       </c>
-      <c r="K70" s="4"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>12</v>
@@ -5027,16 +4814,13 @@
         <v>1</v>
       </c>
       <c r="I71" s="4">
-        <v>1</v>
-      </c>
-      <c r="J71" s="4">
         <v>70</v>
       </c>
-      <c r="K71" s="4"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>32</v>
@@ -5060,19 +4844,16 @@
         <v>1</v>
       </c>
       <c r="I72" s="4">
-        <v>1</v>
-      </c>
-      <c r="J72" s="4">
         <v>71</v>
       </c>
-      <c r="K72" s="4"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>3</v>
@@ -5093,19 +4874,16 @@
         <v>1</v>
       </c>
       <c r="I73" s="4">
-        <v>1</v>
-      </c>
-      <c r="J73" s="4">
         <v>72</v>
       </c>
-      <c r="K73" s="4"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>288</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>289</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>36</v>
@@ -5126,19 +4904,16 @@
         <v>1</v>
       </c>
       <c r="I74" s="4">
-        <v>1</v>
-      </c>
-      <c r="J74" s="4">
         <v>73</v>
       </c>
-      <c r="K74" s="4"/>
-    </row>
-    <row r="75" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>260</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>3</v>
@@ -5159,19 +4934,16 @@
         <v>1</v>
       </c>
       <c r="I75" s="4">
-        <v>1</v>
-      </c>
-      <c r="J75" s="4">
         <v>74</v>
       </c>
-      <c r="K75" s="4"/>
-    </row>
-    <row r="76" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>262</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>3</v>
@@ -5192,19 +4964,16 @@
         <v>1</v>
       </c>
       <c r="I76" s="4">
-        <v>1</v>
-      </c>
-      <c r="J76" s="4">
         <v>75</v>
       </c>
-      <c r="K76" s="4"/>
-    </row>
-    <row r="77" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>3</v>
@@ -5225,19 +4994,16 @@
         <v>1</v>
       </c>
       <c r="I77" s="4">
-        <v>1</v>
-      </c>
-      <c r="J77" s="4">
         <v>76</v>
       </c>
-      <c r="K77" s="4"/>
-    </row>
-    <row r="78" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>266</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>23</v>
@@ -5258,16 +5024,13 @@
         <v>1</v>
       </c>
       <c r="I78" s="4">
-        <v>1</v>
-      </c>
-      <c r="J78" s="4">
         <v>77</v>
       </c>
-      <c r="K78" s="4"/>
-    </row>
-    <row r="79" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>22</v>
@@ -5291,19 +5054,16 @@
         <v>1</v>
       </c>
       <c r="I79" s="4">
-        <v>1</v>
-      </c>
-      <c r="J79" s="4">
         <v>78</v>
       </c>
-      <c r="K79" s="4"/>
-    </row>
-    <row r="80" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>23</v>
@@ -5324,16 +5084,13 @@
         <v>1</v>
       </c>
       <c r="I80" s="4">
-        <v>1</v>
-      </c>
-      <c r="J80" s="4">
         <v>79</v>
       </c>
-      <c r="K80" s="4"/>
-    </row>
-    <row r="81" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J80" s="4"/>
+    </row>
+    <row r="81" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>41</v>
@@ -5357,19 +5114,16 @@
         <v>1</v>
       </c>
       <c r="I81" s="4">
-        <v>1</v>
-      </c>
-      <c r="J81" s="4">
         <v>80</v>
       </c>
-      <c r="K81" s="4"/>
-    </row>
-    <row r="82" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J81" s="4"/>
+    </row>
+    <row r="82" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>36</v>
@@ -5390,16 +5144,13 @@
         <v>1</v>
       </c>
       <c r="I82" s="4">
-        <v>1</v>
-      </c>
-      <c r="J82" s="4">
         <v>81</v>
       </c>
-      <c r="K82" s="4"/>
-    </row>
-    <row r="83" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J82" s="4"/>
+    </row>
+    <row r="83" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>43</v>
@@ -5423,19 +5174,16 @@
         <v>1</v>
       </c>
       <c r="I83" s="4">
-        <v>1</v>
-      </c>
-      <c r="J83" s="4">
         <v>82</v>
       </c>
-      <c r="K83" s="4"/>
-    </row>
-    <row r="84" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J83" s="4"/>
+    </row>
+    <row r="84" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>275</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>36</v>
@@ -5456,21 +5204,18 @@
         <v>1</v>
       </c>
       <c r="I84" s="4">
-        <v>1</v>
-      </c>
-      <c r="J84" s="4">
         <v>83</v>
       </c>
-      <c r="K84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="8"/>
       <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-    </row>
-    <row r="85" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>36</v>
@@ -5491,21 +5236,18 @@
         <v>1</v>
       </c>
       <c r="I85" s="4">
-        <v>1</v>
-      </c>
-      <c r="J85" s="4">
         <v>84</v>
       </c>
-      <c r="K85" s="200"/>
+      <c r="J85" s="200"/>
+      <c r="K85" s="8"/>
       <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-    </row>
-    <row r="86" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>278</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>279</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>23</v>
@@ -5526,18 +5268,15 @@
         <v>1</v>
       </c>
       <c r="I86" s="4">
-        <v>1</v>
-      </c>
-      <c r="J86" s="4">
         <v>85</v>
       </c>
-      <c r="K86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="8"/>
       <c r="L86" s="8"/>
-      <c r="M86" s="8"/>
-    </row>
-    <row r="87" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>95</v>
@@ -5561,18 +5300,15 @@
         <v>1</v>
       </c>
       <c r="I87" s="4">
-        <v>1</v>
-      </c>
-      <c r="J87" s="4">
         <v>86</v>
       </c>
-      <c r="K87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="8"/>
       <c r="L87" s="8"/>
-      <c r="M87" s="8"/>
-    </row>
-    <row r="88" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>103</v>
@@ -5596,21 +5332,18 @@
         <v>1</v>
       </c>
       <c r="I88" s="4">
-        <v>1</v>
-      </c>
-      <c r="J88" s="4">
         <v>87</v>
       </c>
-      <c r="K88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="8"/>
       <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-    </row>
-    <row r="89" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>36</v>
@@ -5631,16 +5364,13 @@
         <v>1</v>
       </c>
       <c r="I89" s="4">
-        <v>1</v>
-      </c>
-      <c r="J89" s="4">
         <v>88</v>
       </c>
-      <c r="K89" s="4"/>
-    </row>
-    <row r="90" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J89" s="4"/>
+    </row>
+    <row r="90" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>34</v>
@@ -5664,19 +5394,16 @@
         <v>1</v>
       </c>
       <c r="I90" s="4">
-        <v>1</v>
-      </c>
-      <c r="J90" s="4">
         <v>89</v>
       </c>
-      <c r="K90" s="4"/>
-    </row>
-    <row r="91" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J90" s="4"/>
+    </row>
+    <row r="91" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>284</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>285</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>36</v>
@@ -5697,19 +5424,16 @@
         <v>1</v>
       </c>
       <c r="I91" s="4">
-        <v>1</v>
-      </c>
-      <c r="J91" s="4">
         <v>90</v>
       </c>
-      <c r="K91" s="4"/>
-    </row>
-    <row r="92" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J91" s="4"/>
+    </row>
+    <row r="92" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>23</v>
@@ -5730,19 +5454,16 @@
         <v>1</v>
       </c>
       <c r="I92" s="4">
-        <v>1</v>
-      </c>
-      <c r="J92" s="4">
         <v>91</v>
       </c>
-      <c r="K92" s="4"/>
-    </row>
-    <row r="93" spans="1:13" s="199" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J92" s="4"/>
+    </row>
+    <row r="93" spans="1:12" s="199" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="200" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B93" s="200" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C93" s="200" t="s">
         <v>23</v>
@@ -5760,25 +5481,22 @@
         <v>0</v>
       </c>
       <c r="H93" s="200">
-        <v>1</v>
-      </c>
-      <c r="I93" s="200">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I93" s="200" t="s">
+        <v>134</v>
       </c>
       <c r="J93" s="200" t="s">
-        <v>135</v>
-      </c>
-      <c r="K93" s="200" t="s">
-        <v>655</v>
-      </c>
-      <c r="L93" s="200"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+        <v>654</v>
+      </c>
+      <c r="K93" s="200"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B94" s="14" t="s">
         <v>291</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>292</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>3</v>
@@ -5798,18 +5516,15 @@
       <c r="H94" s="4">
         <v>0</v>
       </c>
-      <c r="I94" s="4">
-        <v>0</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I94" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J94" s="4"/>
       <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-    </row>
-    <row r="95" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B95" s="14" t="s">
         <v>6</v>
@@ -5832,21 +5547,18 @@
       <c r="H95" s="4">
         <v>0</v>
       </c>
-      <c r="I95" s="4">
-        <v>0</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I95" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J95" s="4"/>
       <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B96" s="14" t="s">
         <v>293</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>294</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>3</v>
@@ -5866,18 +5578,15 @@
       <c r="H96" s="4">
         <v>0</v>
       </c>
-      <c r="I96" s="4">
-        <v>0</v>
-      </c>
-      <c r="J96" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I96" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J96" s="4"/>
       <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>7</v>
@@ -5900,18 +5609,15 @@
       <c r="H97" s="4">
         <v>0</v>
       </c>
-      <c r="I97" s="4">
-        <v>0</v>
-      </c>
-      <c r="J97" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I97" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J97" s="4"/>
       <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>9</v>
@@ -5934,21 +5640,18 @@
       <c r="H98" s="4">
         <v>0</v>
       </c>
-      <c r="I98" s="4">
-        <v>0</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I98" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J98" s="4"/>
       <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>3</v>
@@ -5968,21 +5671,18 @@
       <c r="H99" s="4">
         <v>0</v>
       </c>
-      <c r="I99" s="4">
-        <v>0</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I99" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J99" s="4"/>
       <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>3</v>
@@ -6002,21 +5702,18 @@
       <c r="H100" s="4">
         <v>0</v>
       </c>
-      <c r="I100" s="4">
-        <v>0</v>
-      </c>
-      <c r="J100" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I100" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J100" s="4"/>
       <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>3</v>
@@ -6036,18 +5733,15 @@
       <c r="H101" s="4">
         <v>0</v>
       </c>
-      <c r="I101" s="4">
-        <v>0</v>
-      </c>
-      <c r="J101" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I101" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J101" s="4"/>
       <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-    </row>
-    <row r="102" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B102" s="32" t="s">
         <v>13</v>
@@ -6070,19 +5764,16 @@
       <c r="H102" s="32">
         <v>0</v>
       </c>
-      <c r="I102" s="32">
-        <v>0</v>
-      </c>
-      <c r="J102" s="32" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" s="200" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I102" s="32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" s="200" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="200" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B103" s="200" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C103" s="200" t="s">
         <v>3</v>
@@ -6102,22 +5793,19 @@
       <c r="H103" s="200">
         <v>0</v>
       </c>
-      <c r="I103" s="200">
-        <v>0</v>
-      </c>
-      <c r="J103" s="200" t="s">
-        <v>135</v>
-      </c>
-      <c r="K103" s="198" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I103" s="200" t="s">
+        <v>134</v>
+      </c>
+      <c r="J103" s="198" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>3</v>
@@ -6137,21 +5825,18 @@
       <c r="H104" s="4">
         <v>0</v>
       </c>
-      <c r="I104" s="4">
-        <v>0</v>
-      </c>
-      <c r="J104" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I104" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J104" s="4"/>
       <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>3</v>
@@ -6171,21 +5856,18 @@
       <c r="H105" s="4">
         <v>0</v>
       </c>
-      <c r="I105" s="4">
-        <v>0</v>
-      </c>
-      <c r="J105" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I105" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J105" s="4"/>
       <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>3</v>
@@ -6205,21 +5887,18 @@
       <c r="H106" s="4">
         <v>0</v>
       </c>
-      <c r="I106" s="4">
-        <v>0</v>
-      </c>
-      <c r="J106" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I106" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J106" s="4"/>
       <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>3</v>
@@ -6239,21 +5918,18 @@
       <c r="H107" s="4">
         <v>0</v>
       </c>
-      <c r="I107" s="4">
-        <v>0</v>
-      </c>
-      <c r="J107" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I107" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J107" s="4"/>
       <c r="K107" s="4"/>
-      <c r="L107" s="4"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>3</v>
@@ -6273,18 +5949,15 @@
       <c r="H108" s="4">
         <v>0</v>
       </c>
-      <c r="I108" s="4">
-        <v>0</v>
-      </c>
-      <c r="J108" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I108" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J108" s="4"/>
       <c r="K108" s="4"/>
-      <c r="L108" s="4"/>
-    </row>
-    <row r="109" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B109" s="15" t="s">
         <v>15</v>
@@ -6307,18 +5980,15 @@
       <c r="H109" s="4">
         <v>0</v>
       </c>
-      <c r="I109" s="4">
-        <v>0</v>
-      </c>
-      <c r="J109" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I109" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J109" s="4"/>
       <c r="K109" s="4"/>
-      <c r="L109" s="4"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B110" s="18" t="s">
         <v>16</v>
@@ -6341,21 +6011,18 @@
       <c r="H110" s="4">
         <v>0</v>
       </c>
-      <c r="I110" s="4">
-        <v>0</v>
-      </c>
-      <c r="J110" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I110" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J110" s="4"/>
       <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>3</v>
@@ -6375,18 +6042,15 @@
       <c r="H111" s="4">
         <v>0</v>
       </c>
-      <c r="I111" s="4">
-        <v>0</v>
-      </c>
-      <c r="J111" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I111" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J111" s="4"/>
       <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B112" s="24" t="s">
         <v>17</v>
@@ -6409,18 +6073,15 @@
       <c r="H112" s="4">
         <v>0</v>
       </c>
-      <c r="I112" s="4">
-        <v>0</v>
-      </c>
-      <c r="J112" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I112" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J112" s="4"/>
       <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B113" s="23" t="s">
         <v>18</v>
@@ -6443,21 +6104,18 @@
       <c r="H113" s="4">
         <v>0</v>
       </c>
-      <c r="I113" s="4">
-        <v>0</v>
-      </c>
-      <c r="J113" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I113" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J113" s="4"/>
       <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
-    </row>
-    <row r="114" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B114" s="26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>3</v>
@@ -6477,21 +6135,18 @@
       <c r="H114" s="4">
         <v>0</v>
       </c>
-      <c r="I114" s="4">
-        <v>0</v>
-      </c>
-      <c r="J114" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I114" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J114" s="4"/>
       <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
-    </row>
-    <row r="115" spans="1:12" s="201" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:11" s="201" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="201" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B115" s="201" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C115" s="201" t="s">
         <v>3</v>
@@ -6511,19 +6166,16 @@
       <c r="H115" s="201">
         <v>0</v>
       </c>
-      <c r="I115" s="201">
-        <v>0</v>
-      </c>
-      <c r="J115" s="201" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I115" s="201" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>3</v>
@@ -6543,21 +6195,18 @@
       <c r="H116" s="4">
         <v>0</v>
       </c>
-      <c r="I116" s="4">
-        <v>0</v>
-      </c>
-      <c r="J116" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I116" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J116" s="4"/>
       <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>3</v>
@@ -6577,18 +6226,15 @@
       <c r="H117" s="4">
         <v>0</v>
       </c>
-      <c r="I117" s="4">
-        <v>0</v>
-      </c>
-      <c r="J117" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I117" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J117" s="4"/>
       <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B118" s="25" t="s">
         <v>19</v>
@@ -6611,21 +6257,18 @@
       <c r="H118" s="4">
         <v>0</v>
       </c>
-      <c r="I118" s="4">
-        <v>0</v>
-      </c>
-      <c r="J118" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I118" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J118" s="4"/>
       <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>3</v>
@@ -6645,18 +6288,15 @@
       <c r="H119" s="4">
         <v>0</v>
       </c>
-      <c r="I119" s="4">
-        <v>0</v>
-      </c>
-      <c r="J119" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I119" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J119" s="4"/>
       <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B120" s="32" t="s">
         <v>20</v>
@@ -6677,24 +6317,21 @@
         <v>0</v>
       </c>
       <c r="H120" s="4">
-        <v>0</v>
-      </c>
-      <c r="I120" s="4">
-        <f>-I463</f>
-        <v>0</v>
-      </c>
-      <c r="J120" s="4" t="s">
-        <v>135</v>
-      </c>
+        <f>-H463</f>
+        <v>0</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J120" s="4"/>
       <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B121" s="32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>3</v>
@@ -6714,21 +6351,18 @@
       <c r="H121" s="4">
         <v>0</v>
       </c>
-      <c r="I121" s="4">
-        <v>0</v>
-      </c>
-      <c r="J121" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I121" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J121" s="4"/>
       <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
-    </row>
-    <row r="122" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B122" s="32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>23</v>
@@ -6748,18 +6382,15 @@
       <c r="H122" s="4">
         <v>0</v>
       </c>
-      <c r="I122" s="4">
-        <v>0</v>
-      </c>
-      <c r="J122" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I122" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J122" s="4"/>
       <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B123" s="32" t="s">
         <v>24</v>
@@ -6780,24 +6411,21 @@
         <v>0</v>
       </c>
       <c r="H123" s="4">
-        <v>0</v>
-      </c>
-      <c r="I123" s="4">
-        <f>-I468</f>
-        <v>0</v>
-      </c>
-      <c r="J123" s="4" t="s">
-        <v>135</v>
-      </c>
+        <f>-H468</f>
+        <v>0</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J123" s="4"/>
       <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="32" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B124" s="32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>23</v>
@@ -6817,21 +6445,18 @@
       <c r="H124" s="4">
         <v>0</v>
       </c>
-      <c r="I124" s="4">
-        <v>0</v>
-      </c>
-      <c r="J124" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I124" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J124" s="4"/>
       <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B125" s="32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>23</v>
@@ -6849,24 +6474,21 @@
         <v>0</v>
       </c>
       <c r="H125" s="4">
-        <v>0</v>
-      </c>
-      <c r="I125" s="4">
-        <f>-I470</f>
-        <v>0</v>
-      </c>
-      <c r="J125" s="4" t="s">
-        <v>135</v>
-      </c>
+        <f>-H470</f>
+        <v>0</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J125" s="4"/>
       <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B126" s="32" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>23</v>
@@ -6884,21 +6506,18 @@
         <v>0</v>
       </c>
       <c r="H126" s="4">
-        <v>0</v>
-      </c>
-      <c r="I126" s="4">
-        <f>-I472</f>
-        <v>0</v>
-      </c>
-      <c r="J126" s="4" t="s">
-        <v>135</v>
-      </c>
+        <f>-H472</f>
+        <v>0</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J126" s="4"/>
       <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B127" s="32" t="s">
         <v>25</v>
@@ -6921,21 +6540,18 @@
       <c r="H127" s="4">
         <v>0</v>
       </c>
-      <c r="I127" s="4">
-        <v>0</v>
-      </c>
-      <c r="J127" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I127" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J127" s="4"/>
       <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B128" s="32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>23</v>
@@ -6955,18 +6571,15 @@
       <c r="H128" s="4">
         <v>0</v>
       </c>
-      <c r="I128" s="4">
-        <v>0</v>
-      </c>
-      <c r="J128" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I128" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J128" s="4"/>
       <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="32" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B129" s="32" t="s">
         <v>26</v>
@@ -6987,21 +6600,18 @@
         <v>0</v>
       </c>
       <c r="H129" s="4">
-        <v>0</v>
-      </c>
-      <c r="I129" s="4">
-        <f>-I475</f>
-        <v>0</v>
-      </c>
-      <c r="J129" s="4" t="s">
-        <v>135</v>
-      </c>
+        <f>-H475</f>
+        <v>0</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J129" s="4"/>
       <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B130" s="32" t="s">
         <v>27</v>
@@ -7024,21 +6634,18 @@
       <c r="H130" s="4">
         <v>0</v>
       </c>
-      <c r="I130" s="4">
-        <v>0</v>
-      </c>
-      <c r="J130" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I130" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J130" s="4"/>
       <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B131" s="32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>23</v>
@@ -7058,21 +6665,18 @@
       <c r="H131" s="4">
         <v>0</v>
       </c>
-      <c r="I131" s="4">
-        <v>0</v>
-      </c>
-      <c r="J131" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I131" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J131" s="4"/>
       <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B132" s="32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>23</v>
@@ -7092,21 +6696,18 @@
       <c r="H132" s="4">
         <v>0</v>
       </c>
-      <c r="I132" s="4">
-        <v>0</v>
-      </c>
-      <c r="J132" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I132" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J132" s="4"/>
       <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B133" s="32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>23</v>
@@ -7126,21 +6727,18 @@
       <c r="H133" s="4">
         <v>0</v>
       </c>
-      <c r="I133" s="4">
-        <v>0</v>
-      </c>
-      <c r="J133" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I133" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J133" s="4"/>
       <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
-    </row>
-    <row r="134" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B134" s="32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>23</v>
@@ -7160,21 +6758,18 @@
       <c r="H134" s="4">
         <v>0</v>
       </c>
-      <c r="I134" s="4">
-        <v>0</v>
-      </c>
-      <c r="J134" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I134" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J134" s="4"/>
       <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B135" s="32" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>23</v>
@@ -7194,21 +6789,18 @@
       <c r="H135" s="4">
         <v>0</v>
       </c>
-      <c r="I135" s="4">
-        <v>0</v>
-      </c>
-      <c r="J135" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I135" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J135" s="4"/>
       <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="32" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B136" s="32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>23</v>
@@ -7228,21 +6820,18 @@
       <c r="H136" s="4">
         <v>0</v>
       </c>
-      <c r="I136" s="4">
-        <v>0</v>
-      </c>
-      <c r="J136" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I136" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J136" s="4"/>
       <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>23</v>
@@ -7262,18 +6851,15 @@
       <c r="H137" s="4">
         <v>0</v>
       </c>
-      <c r="I137" s="4">
-        <v>0</v>
-      </c>
-      <c r="J137" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I137" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J137" s="4"/>
       <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B138" s="33" t="s">
         <v>29</v>
@@ -7296,21 +6882,18 @@
       <c r="H138" s="4">
         <v>0</v>
       </c>
-      <c r="I138" s="4">
-        <v>0</v>
-      </c>
-      <c r="J138" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I138" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J138" s="4"/>
       <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>23</v>
@@ -7330,18 +6913,15 @@
       <c r="H139" s="4">
         <v>0</v>
       </c>
-      <c r="I139" s="4">
-        <v>0</v>
-      </c>
-      <c r="J139" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I139" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J139" s="4"/>
       <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B140" s="29" t="s">
         <v>30</v>
@@ -7364,21 +6944,18 @@
       <c r="H140" s="4">
         <v>0</v>
       </c>
-      <c r="I140" s="4">
-        <v>0</v>
-      </c>
-      <c r="J140" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I140" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J140" s="4"/>
       <c r="K140" s="4"/>
-      <c r="L140" s="4"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B141" s="36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>23</v>
@@ -7398,21 +6975,18 @@
       <c r="H141" s="4">
         <v>0</v>
       </c>
-      <c r="I141" s="4">
-        <v>0</v>
-      </c>
-      <c r="J141" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I141" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J141" s="4"/>
       <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B142" s="38" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>23</v>
@@ -7432,21 +7006,18 @@
       <c r="H142" s="4">
         <v>0</v>
       </c>
-      <c r="I142" s="4">
-        <v>0</v>
-      </c>
-      <c r="J142" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I142" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J142" s="4"/>
       <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B143" s="34" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>23</v>
@@ -7466,21 +7037,18 @@
       <c r="H143" s="4">
         <v>0</v>
       </c>
-      <c r="I143" s="4">
-        <v>0</v>
-      </c>
-      <c r="J143" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I143" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J143" s="4"/>
       <c r="K143" s="4"/>
-      <c r="L143" s="4"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B144" s="37" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>23</v>
@@ -7500,18 +7068,15 @@
       <c r="H144" s="4">
         <v>0</v>
       </c>
-      <c r="I144" s="4">
-        <v>0</v>
-      </c>
-      <c r="J144" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I144" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J144" s="4"/>
       <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B145" s="35" t="s">
         <v>31</v>
@@ -7534,21 +7099,18 @@
       <c r="H145" s="4">
         <v>0</v>
       </c>
-      <c r="I145" s="4">
-        <v>0</v>
-      </c>
-      <c r="J145" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I145" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J145" s="4"/>
       <c r="K145" s="4"/>
-      <c r="L145" s="4"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B146" s="39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>23</v>
@@ -7568,21 +7130,18 @@
       <c r="H146" s="4">
         <v>0</v>
       </c>
-      <c r="I146" s="4">
-        <v>0</v>
-      </c>
-      <c r="J146" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I146" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J146" s="4"/>
       <c r="K146" s="4"/>
-      <c r="L146" s="4"/>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="39" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B147" s="39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>23</v>
@@ -7602,18 +7161,15 @@
       <c r="H147" s="4">
         <v>0</v>
       </c>
-      <c r="I147" s="4">
-        <v>0</v>
-      </c>
-      <c r="J147" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I147" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J147" s="4"/>
       <c r="K147" s="4"/>
-      <c r="L147" s="4"/>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="42" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B148" s="41" t="s">
         <v>35</v>
@@ -7636,18 +7192,15 @@
       <c r="H148" s="4">
         <v>0</v>
       </c>
-      <c r="I148" s="4">
-        <v>0</v>
-      </c>
-      <c r="J148" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I148" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J148" s="4"/>
       <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B149" s="40" t="s">
         <v>37</v>
@@ -7670,21 +7223,18 @@
       <c r="H149" s="4">
         <v>0</v>
       </c>
-      <c r="I149" s="4">
-        <v>0</v>
-      </c>
-      <c r="J149" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I149" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J149" s="4"/>
       <c r="K149" s="4"/>
-      <c r="L149" s="4"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="44" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B150" s="42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>36</v>
@@ -7704,18 +7254,15 @@
       <c r="H150" s="4">
         <v>0</v>
       </c>
-      <c r="I150" s="4">
-        <v>0</v>
-      </c>
-      <c r="J150" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I150" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J150" s="4"/>
       <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="44" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B151" s="42" t="s">
         <v>38</v>
@@ -7738,18 +7285,15 @@
       <c r="H151" s="4">
         <v>0</v>
       </c>
-      <c r="I151" s="4">
-        <v>0</v>
-      </c>
-      <c r="J151" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I151" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J151" s="4"/>
       <c r="K151" s="4"/>
-      <c r="L151" s="4"/>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="44" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>39</v>
@@ -7772,18 +7316,15 @@
       <c r="H152" s="4">
         <v>0</v>
       </c>
-      <c r="I152" s="4">
-        <v>0</v>
-      </c>
-      <c r="J152" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I152" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J152" s="4"/>
       <c r="K152" s="4"/>
-      <c r="L152" s="4"/>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="44" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B153" s="42" t="s">
         <v>40</v>
@@ -7806,21 +7347,18 @@
       <c r="H153" s="4">
         <v>0</v>
       </c>
-      <c r="I153" s="4">
-        <v>0</v>
-      </c>
-      <c r="J153" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I153" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J153" s="4"/>
       <c r="K153" s="4"/>
-      <c r="L153" s="4"/>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="44" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B154" s="43" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>36</v>
@@ -7840,18 +7378,15 @@
       <c r="H154" s="4">
         <v>0</v>
       </c>
-      <c r="I154" s="4">
-        <v>0</v>
-      </c>
-      <c r="J154" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I154" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J154" s="4"/>
       <c r="K154" s="4"/>
-      <c r="L154" s="4"/>
-    </row>
-    <row r="155" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="44" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B155" s="43" t="s">
         <v>42</v>
@@ -7874,18 +7409,15 @@
       <c r="H155" s="4">
         <v>0</v>
       </c>
-      <c r="I155" s="4">
-        <v>0</v>
-      </c>
-      <c r="J155" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I155" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J155" s="4"/>
       <c r="K155" s="4"/>
-      <c r="L155" s="4"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="44" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B156" s="44" t="s">
         <v>44</v>
@@ -7908,18 +7440,15 @@
       <c r="H156" s="4">
         <v>0</v>
       </c>
-      <c r="I156" s="4">
-        <v>0</v>
-      </c>
-      <c r="J156" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I156" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J156" s="4"/>
       <c r="K156" s="4"/>
-      <c r="L156" s="4"/>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>45</v>
@@ -7942,18 +7471,15 @@
       <c r="H157" s="4">
         <v>0</v>
       </c>
-      <c r="I157" s="4">
-        <v>0</v>
-      </c>
-      <c r="J157" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I157" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J157" s="4"/>
       <c r="K157" s="4"/>
-      <c r="L157" s="4"/>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B158" s="44" t="s">
         <v>46</v>
@@ -7976,21 +7502,18 @@
       <c r="H158" s="4">
         <v>0</v>
       </c>
-      <c r="I158" s="4">
-        <v>0</v>
-      </c>
-      <c r="J158" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I158" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J158" s="4"/>
       <c r="K158" s="4"/>
-      <c r="L158" s="4"/>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="51" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B159" s="44" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>36</v>
@@ -8010,21 +7533,18 @@
       <c r="H159" s="4">
         <v>0</v>
       </c>
-      <c r="I159" s="4">
-        <v>0</v>
-      </c>
-      <c r="J159" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I159" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J159" s="4"/>
       <c r="K159" s="4"/>
-      <c r="L159" s="4"/>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="51" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B160" s="44" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>36</v>
@@ -8044,18 +7564,15 @@
       <c r="H160" s="4">
         <v>0</v>
       </c>
-      <c r="I160" s="4">
-        <v>0</v>
-      </c>
-      <c r="J160" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I160" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J160" s="4"/>
       <c r="K160" s="4"/>
-      <c r="L160" s="4"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="51" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B161" s="44" t="s">
         <v>47</v>
@@ -8078,21 +7595,18 @@
       <c r="H161" s="4">
         <v>0</v>
       </c>
-      <c r="I161" s="4">
-        <v>0</v>
-      </c>
-      <c r="J161" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I161" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J161" s="4"/>
       <c r="K161" s="4"/>
-      <c r="L161" s="4"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="51" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B162" s="46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>36</v>
@@ -8112,18 +7626,15 @@
       <c r="H162" s="4">
         <v>0</v>
       </c>
-      <c r="I162" s="4">
-        <v>0</v>
-      </c>
-      <c r="J162" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I162" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J162" s="4"/>
       <c r="K162" s="4"/>
-      <c r="L162" s="4"/>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="51" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B163" s="45" t="s">
         <v>48</v>
@@ -8146,18 +7657,15 @@
       <c r="H163" s="4">
         <v>0</v>
       </c>
-      <c r="I163" s="4">
-        <v>0</v>
-      </c>
-      <c r="J163" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I163" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J163" s="4"/>
       <c r="K163" s="4"/>
-      <c r="L163" s="4"/>
-    </row>
-    <row r="164" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="51" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B164" s="49" t="s">
         <v>49</v>
@@ -8180,21 +7688,18 @@
       <c r="H164" s="4">
         <v>0</v>
       </c>
-      <c r="I164" s="4">
-        <v>0</v>
-      </c>
-      <c r="J164" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I164" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J164" s="4"/>
       <c r="K164" s="4"/>
-      <c r="L164" s="4"/>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="51" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B165" s="48" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>36</v>
@@ -8214,18 +7719,15 @@
       <c r="H165" s="4">
         <v>0</v>
       </c>
-      <c r="I165" s="4">
-        <v>0</v>
-      </c>
-      <c r="J165" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I165" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J165" s="4"/>
       <c r="K165" s="4"/>
-      <c r="L165" s="4"/>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B166" s="47" t="s">
         <v>50</v>
@@ -8248,18 +7750,15 @@
       <c r="H166" s="4">
         <v>0</v>
       </c>
-      <c r="I166" s="4">
-        <v>0</v>
-      </c>
-      <c r="J166" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I166" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J166" s="4"/>
       <c r="K166" s="4"/>
-      <c r="L166" s="4"/>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B167" s="50" t="s">
         <v>51</v>
@@ -8282,21 +7781,18 @@
       <c r="H167" s="4">
         <v>0</v>
       </c>
-      <c r="I167" s="4">
-        <v>0</v>
-      </c>
-      <c r="J167" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I167" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J167" s="4"/>
       <c r="K167" s="4"/>
-      <c r="L167" s="4"/>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B168" s="51" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>36</v>
@@ -8316,18 +7812,15 @@
       <c r="H168" s="4">
         <v>0</v>
       </c>
-      <c r="I168" s="4">
-        <v>0</v>
-      </c>
-      <c r="J168" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I168" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J168" s="4"/>
       <c r="K168" s="4"/>
-      <c r="L168" s="4"/>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B169" s="55" t="s">
         <v>52</v>
@@ -8350,18 +7843,15 @@
       <c r="H169" s="4">
         <v>0</v>
       </c>
-      <c r="I169" s="4">
-        <v>0</v>
-      </c>
-      <c r="J169" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I169" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J169" s="4"/>
       <c r="K169" s="4"/>
-      <c r="L169" s="4"/>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B170" s="53" t="s">
         <v>53</v>
@@ -8384,21 +7874,18 @@
       <c r="H170" s="4">
         <v>0</v>
       </c>
-      <c r="I170" s="4">
-        <v>0</v>
-      </c>
-      <c r="J170" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I170" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J170" s="4"/>
       <c r="K170" s="4"/>
-      <c r="L170" s="4"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B171" s="52" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>3</v>
@@ -8418,18 +7905,15 @@
       <c r="H171" s="4">
         <v>0</v>
       </c>
-      <c r="I171" s="4">
-        <v>0</v>
-      </c>
-      <c r="J171" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I171" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J171" s="4"/>
       <c r="K171" s="4"/>
-      <c r="L171" s="4"/>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B172" s="54" t="s">
         <v>54</v>
@@ -8452,21 +7936,18 @@
       <c r="H172" s="4">
         <v>0</v>
       </c>
-      <c r="I172" s="4">
-        <v>0</v>
-      </c>
-      <c r="J172" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I172" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J172" s="4"/>
       <c r="K172" s="4"/>
-      <c r="L172" s="4"/>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B173" s="56" t="s">
         <v>421</v>
-      </c>
-      <c r="B173" s="56" t="s">
-        <v>422</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>3</v>
@@ -8486,21 +7967,18 @@
       <c r="H173" s="4">
         <v>0</v>
       </c>
-      <c r="I173" s="4">
-        <v>0</v>
-      </c>
-      <c r="J173" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I173" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J173" s="4"/>
       <c r="K173" s="4"/>
-      <c r="L173" s="4"/>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B174" s="57" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>3</v>
@@ -8520,21 +7998,18 @@
       <c r="H174" s="4">
         <v>0</v>
       </c>
-      <c r="I174" s="4">
-        <v>0</v>
-      </c>
-      <c r="J174" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I174" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J174" s="4"/>
       <c r="K174" s="4"/>
-      <c r="L174" s="4"/>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>3</v>
@@ -8554,21 +8029,18 @@
       <c r="H175" s="4">
         <v>0</v>
       </c>
-      <c r="I175" s="4">
-        <v>0</v>
-      </c>
-      <c r="J175" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I175" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J175" s="4"/>
       <c r="K175" s="4"/>
-      <c r="L175" s="4"/>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B176" s="58" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>3</v>
@@ -8588,21 +8060,18 @@
       <c r="H176" s="4">
         <v>0</v>
       </c>
-      <c r="I176" s="4">
-        <v>0</v>
-      </c>
-      <c r="J176" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I176" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J176" s="4"/>
       <c r="K176" s="4"/>
-      <c r="L176" s="4"/>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B177" s="59" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>3</v>
@@ -8622,18 +8091,15 @@
       <c r="H177" s="4">
         <v>0</v>
       </c>
-      <c r="I177" s="4">
-        <v>0</v>
-      </c>
-      <c r="J177" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I177" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J177" s="4"/>
       <c r="K177" s="4"/>
-      <c r="L177" s="4"/>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B178" s="60" t="s">
         <v>57</v>
@@ -8656,18 +8122,15 @@
       <c r="H178" s="4">
         <v>0</v>
       </c>
-      <c r="I178" s="4">
-        <v>0</v>
-      </c>
-      <c r="J178" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I178" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J178" s="4"/>
       <c r="K178" s="4"/>
-      <c r="L178" s="4"/>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B179" s="66" t="s">
         <v>58</v>
@@ -8690,21 +8153,18 @@
       <c r="H179" s="4">
         <v>0</v>
       </c>
-      <c r="I179" s="4">
-        <v>0</v>
-      </c>
-      <c r="J179" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I179" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J179" s="4"/>
       <c r="K179" s="4"/>
-      <c r="L179" s="4"/>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B180" s="64" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>3</v>
@@ -8724,21 +8184,18 @@
       <c r="H180" s="4">
         <v>0</v>
       </c>
-      <c r="I180" s="4">
-        <v>0</v>
-      </c>
-      <c r="J180" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I180" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J180" s="4"/>
       <c r="K180" s="4"/>
-      <c r="L180" s="4"/>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B181" s="62" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>3</v>
@@ -8758,21 +8215,18 @@
       <c r="H181" s="4">
         <v>0</v>
       </c>
-      <c r="I181" s="4">
-        <v>0</v>
-      </c>
-      <c r="J181" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I181" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J181" s="4"/>
       <c r="K181" s="4"/>
-      <c r="L181" s="4"/>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B182" s="63" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>3</v>
@@ -8792,18 +8246,15 @@
       <c r="H182" s="4">
         <v>0</v>
       </c>
-      <c r="I182" s="4">
-        <v>0</v>
-      </c>
-      <c r="J182" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I182" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J182" s="4"/>
       <c r="K182" s="4"/>
-      <c r="L182" s="4"/>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B183" s="65" t="s">
         <v>60</v>
@@ -8826,18 +8277,15 @@
       <c r="H183" s="4">
         <v>0</v>
       </c>
-      <c r="I183" s="4">
-        <v>0</v>
-      </c>
-      <c r="J183" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I183" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J183" s="4"/>
       <c r="K183" s="4"/>
-      <c r="L183" s="4"/>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B184" s="61" t="s">
         <v>61</v>
@@ -8860,18 +8308,15 @@
       <c r="H184" s="4">
         <v>0</v>
       </c>
-      <c r="I184" s="4">
-        <v>0</v>
-      </c>
-      <c r="J184" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I184" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J184" s="4"/>
       <c r="K184" s="4"/>
-      <c r="L184" s="4"/>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B185" s="69" t="s">
         <v>62</v>
@@ -8894,21 +8339,18 @@
       <c r="H185" s="4">
         <v>0</v>
       </c>
-      <c r="I185" s="4">
-        <v>0</v>
-      </c>
-      <c r="J185" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I185" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J185" s="4"/>
       <c r="K185" s="4"/>
-      <c r="L185" s="4"/>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B186" s="70" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>3</v>
@@ -8928,21 +8370,18 @@
       <c r="H186" s="4">
         <v>0</v>
       </c>
-      <c r="I186" s="4">
-        <v>0</v>
-      </c>
-      <c r="J186" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I186" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J186" s="4"/>
       <c r="K186" s="4"/>
-      <c r="L186" s="4"/>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B187" s="70" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>3</v>
@@ -8962,18 +8401,15 @@
       <c r="H187" s="4">
         <v>0</v>
       </c>
-      <c r="I187" s="4">
-        <v>0</v>
-      </c>
-      <c r="J187" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I187" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J187" s="4"/>
       <c r="K187" s="4"/>
-      <c r="L187" s="4"/>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B188" s="67" t="s">
         <v>63</v>
@@ -8996,21 +8432,18 @@
       <c r="H188" s="4">
         <v>0</v>
       </c>
-      <c r="I188" s="4">
-        <v>0</v>
-      </c>
-      <c r="J188" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I188" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J188" s="4"/>
       <c r="K188" s="4"/>
-      <c r="L188" s="4"/>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B189" s="68" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>3</v>
@@ -9030,18 +8463,15 @@
       <c r="H189" s="4">
         <v>0</v>
       </c>
-      <c r="I189" s="4">
-        <v>0</v>
-      </c>
-      <c r="J189" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I189" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J189" s="4"/>
       <c r="K189" s="4"/>
-      <c r="L189" s="4"/>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B190" s="74" t="s">
         <v>64</v>
@@ -9064,21 +8494,18 @@
       <c r="H190" s="4">
         <v>0</v>
       </c>
-      <c r="I190" s="4">
-        <v>0</v>
-      </c>
-      <c r="J190" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I190" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J190" s="4"/>
       <c r="K190" s="4"/>
-      <c r="L190" s="4"/>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B191" s="72" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>3</v>
@@ -9098,18 +8525,15 @@
       <c r="H191" s="4">
         <v>0</v>
       </c>
-      <c r="I191" s="4">
-        <v>0</v>
-      </c>
-      <c r="J191" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I191" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J191" s="4"/>
       <c r="K191" s="4"/>
-      <c r="L191" s="4"/>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B192" s="73" t="s">
         <v>65</v>
@@ -9132,18 +8556,15 @@
       <c r="H192" s="4">
         <v>0</v>
       </c>
-      <c r="I192" s="4">
-        <v>0</v>
-      </c>
-      <c r="J192" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I192" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J192" s="4"/>
       <c r="K192" s="4"/>
-      <c r="L192" s="4"/>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B193" s="71" t="s">
         <v>66</v>
@@ -9166,21 +8587,18 @@
       <c r="H193" s="4">
         <v>0</v>
       </c>
-      <c r="I193" s="4">
-        <v>0</v>
-      </c>
-      <c r="J193" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I193" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J193" s="4"/>
       <c r="K193" s="4"/>
-      <c r="L193" s="4"/>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B194" s="73" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>3</v>
@@ -9200,21 +8618,18 @@
       <c r="H194" s="4">
         <v>0</v>
       </c>
-      <c r="I194" s="4">
-        <v>0</v>
-      </c>
-      <c r="J194" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I194" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J194" s="4"/>
       <c r="K194" s="4"/>
-      <c r="L194" s="4"/>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B195" s="76" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>3</v>
@@ -9234,18 +8649,15 @@
       <c r="H195" s="4">
         <v>0</v>
       </c>
-      <c r="I195" s="4">
-        <v>0</v>
-      </c>
-      <c r="J195" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I195" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J195" s="4"/>
       <c r="K195" s="4"/>
-      <c r="L195" s="4"/>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B196" s="77" t="s">
         <v>67</v>
@@ -9268,21 +8680,18 @@
       <c r="H196" s="4">
         <v>0</v>
       </c>
-      <c r="I196" s="4">
-        <v>0</v>
-      </c>
-      <c r="J196" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I196" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J196" s="4"/>
       <c r="K196" s="4"/>
-      <c r="L196" s="4"/>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B197" s="79" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>3</v>
@@ -9302,18 +8711,15 @@
       <c r="H197" s="4">
         <v>0</v>
       </c>
-      <c r="I197" s="4">
-        <v>0</v>
-      </c>
-      <c r="J197" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I197" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J197" s="4"/>
       <c r="K197" s="4"/>
-      <c r="L197" s="4"/>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B198" s="80" t="s">
         <v>68</v>
@@ -9336,21 +8742,18 @@
       <c r="H198" s="4">
         <v>0</v>
       </c>
-      <c r="I198" s="4">
-        <v>0</v>
-      </c>
-      <c r="J198" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I198" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J198" s="4"/>
       <c r="K198" s="4"/>
-      <c r="L198" s="4"/>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B199" s="81" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>3</v>
@@ -9370,18 +8773,15 @@
       <c r="H199" s="4">
         <v>0</v>
       </c>
-      <c r="I199" s="4">
-        <v>0</v>
-      </c>
-      <c r="J199" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I199" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J199" s="4"/>
       <c r="K199" s="4"/>
-      <c r="L199" s="4"/>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B200" s="75" t="s">
         <v>69</v>
@@ -9404,21 +8804,18 @@
       <c r="H200" s="4">
         <v>0</v>
       </c>
-      <c r="I200" s="4">
-        <v>0</v>
-      </c>
-      <c r="J200" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I200" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J200" s="4"/>
       <c r="K200" s="4"/>
-      <c r="L200" s="4"/>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B201" s="78" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>3</v>
@@ -9438,21 +8835,18 @@
       <c r="H201" s="4">
         <v>0</v>
       </c>
-      <c r="I201" s="4">
-        <v>0</v>
-      </c>
-      <c r="J201" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I201" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J201" s="4"/>
       <c r="K201" s="4"/>
-      <c r="L201" s="4"/>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B202" s="83" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>23</v>
@@ -9472,18 +8866,15 @@
       <c r="H202" s="4">
         <v>0</v>
       </c>
-      <c r="I202" s="4">
-        <v>0</v>
-      </c>
-      <c r="J202" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I202" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J202" s="4"/>
       <c r="K202" s="4"/>
-      <c r="L202" s="4"/>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B203" s="85" t="s">
         <v>70</v>
@@ -9506,18 +8897,15 @@
       <c r="H203" s="4">
         <v>0</v>
       </c>
-      <c r="I203" s="4">
-        <v>0</v>
-      </c>
-      <c r="J203" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I203" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J203" s="4"/>
       <c r="K203" s="4"/>
-      <c r="L203" s="4"/>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B204" s="82" t="s">
         <v>71</v>
@@ -9540,18 +8928,15 @@
       <c r="H204" s="4">
         <v>0</v>
       </c>
-      <c r="I204" s="4">
-        <v>0</v>
-      </c>
-      <c r="J204" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I204" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J204" s="4"/>
       <c r="K204" s="4"/>
-      <c r="L204" s="4"/>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B205" s="84" t="s">
         <v>72</v>
@@ -9574,18 +8959,15 @@
       <c r="H205" s="4">
         <v>0</v>
       </c>
-      <c r="I205" s="4">
-        <v>0</v>
-      </c>
-      <c r="J205" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I205" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J205" s="4"/>
       <c r="K205" s="4"/>
-      <c r="L205" s="4"/>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B206" s="87" t="s">
         <v>74</v>
@@ -9608,21 +8990,18 @@
       <c r="H206" s="4">
         <v>0</v>
       </c>
-      <c r="I206" s="4">
-        <v>0</v>
-      </c>
-      <c r="J206" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I206" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J206" s="4"/>
       <c r="K206" s="4"/>
-      <c r="L206" s="4"/>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B207" s="89" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>23</v>
@@ -9642,18 +9021,15 @@
       <c r="H207" s="4">
         <v>0</v>
       </c>
-      <c r="I207" s="4">
-        <v>0</v>
-      </c>
-      <c r="J207" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I207" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J207" s="4"/>
       <c r="K207" s="4"/>
-      <c r="L207" s="4"/>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B208" s="86" t="s">
         <v>75</v>
@@ -9676,18 +9052,15 @@
       <c r="H208" s="4">
         <v>0</v>
       </c>
-      <c r="I208" s="4">
-        <v>0</v>
-      </c>
-      <c r="J208" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I208" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J208" s="4"/>
       <c r="K208" s="4"/>
-      <c r="L208" s="4"/>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B209" s="87" t="s">
         <v>76</v>
@@ -9710,18 +9083,15 @@
       <c r="H209" s="4">
         <v>0</v>
       </c>
-      <c r="I209" s="4">
-        <v>0</v>
-      </c>
-      <c r="J209" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I209" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J209" s="4"/>
       <c r="K209" s="4"/>
-      <c r="L209" s="4"/>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B210" s="88" t="s">
         <v>77</v>
@@ -9744,21 +9114,18 @@
       <c r="H210" s="4">
         <v>0</v>
       </c>
-      <c r="I210" s="4">
-        <v>0</v>
-      </c>
-      <c r="J210" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I210" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J210" s="4"/>
       <c r="K210" s="4"/>
-      <c r="L210" s="4"/>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B211" s="90" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>23</v>
@@ -9778,18 +9145,15 @@
       <c r="H211" s="4">
         <v>0</v>
       </c>
-      <c r="I211" s="4">
-        <v>0</v>
-      </c>
-      <c r="J211" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I211" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J211" s="4"/>
       <c r="K211" s="4"/>
-      <c r="L211" s="4"/>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B212" s="95" t="s">
         <v>78</v>
@@ -9812,21 +9176,18 @@
       <c r="H212" s="4">
         <v>0</v>
       </c>
-      <c r="I212" s="4">
-        <v>0</v>
-      </c>
-      <c r="J212" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I212" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J212" s="4"/>
       <c r="K212" s="4"/>
-      <c r="L212" s="4"/>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B213" s="94" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>23</v>
@@ -9846,21 +9207,18 @@
       <c r="H213" s="4">
         <v>0</v>
       </c>
-      <c r="I213" s="4">
-        <v>0</v>
-      </c>
-      <c r="J213" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I213" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J213" s="4"/>
       <c r="K213" s="4"/>
-      <c r="L213" s="4"/>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B214" s="92" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>23</v>
@@ -9880,21 +9238,18 @@
       <c r="H214" s="4">
         <v>0</v>
       </c>
-      <c r="I214" s="4">
-        <v>0</v>
-      </c>
-      <c r="J214" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I214" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J214" s="4"/>
       <c r="K214" s="4"/>
-      <c r="L214" s="4"/>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B215" s="91" t="s">
         <v>477</v>
-      </c>
-      <c r="B215" s="91" t="s">
-        <v>478</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>23</v>
@@ -9914,18 +9269,15 @@
       <c r="H215" s="4">
         <v>0</v>
       </c>
-      <c r="I215" s="4">
-        <v>0</v>
-      </c>
-      <c r="J215" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I215" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J215" s="4"/>
       <c r="K215" s="4"/>
-      <c r="L215" s="4"/>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B216" s="93" t="s">
         <v>79</v>
@@ -9948,21 +9300,18 @@
       <c r="H216" s="4">
         <v>0</v>
       </c>
-      <c r="I216" s="4">
-        <v>0</v>
-      </c>
-      <c r="J216" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I216" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J216" s="4"/>
       <c r="K216" s="4"/>
-      <c r="L216" s="4"/>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B217" s="96" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>23</v>
@@ -9982,21 +9331,18 @@
       <c r="H217" s="4">
         <v>0</v>
       </c>
-      <c r="I217" s="4">
-        <v>0</v>
-      </c>
-      <c r="J217" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I217" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J217" s="4"/>
       <c r="K217" s="4"/>
-      <c r="L217" s="4"/>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="99" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B218" s="99" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>23</v>
@@ -10016,21 +9362,18 @@
       <c r="H218" s="4">
         <v>0</v>
       </c>
-      <c r="I218" s="4">
-        <v>0</v>
-      </c>
-      <c r="J218" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I218" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J218" s="4"/>
       <c r="K218" s="4"/>
-      <c r="L218" s="4"/>
-    </row>
-    <row r="219" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="99" t="s">
+        <v>493</v>
+      </c>
+      <c r="B219" s="99" t="s">
         <v>494</v>
-      </c>
-      <c r="B219" s="99" t="s">
-        <v>495</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>23</v>
@@ -10050,21 +9393,18 @@
       <c r="H219" s="4">
         <v>0</v>
       </c>
-      <c r="I219" s="4">
-        <v>0</v>
-      </c>
-      <c r="J219" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I219" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J219" s="4"/>
       <c r="K219" s="4"/>
-      <c r="L219" s="4"/>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="99" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B220" s="99" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>23</v>
@@ -10084,18 +9424,15 @@
       <c r="H220" s="4">
         <v>0</v>
       </c>
-      <c r="I220" s="4">
-        <v>0</v>
-      </c>
-      <c r="J220" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I220" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J220" s="4"/>
       <c r="K220" s="4"/>
-      <c r="L220" s="4"/>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="99" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B221" s="99" t="s">
         <v>80</v>
@@ -10118,21 +9455,18 @@
       <c r="H221" s="4">
         <v>0</v>
       </c>
-      <c r="I221" s="4">
-        <v>0</v>
-      </c>
-      <c r="J221" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I221" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J221" s="4"/>
       <c r="K221" s="4"/>
-      <c r="L221" s="4"/>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="99" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B222" s="99" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>23</v>
@@ -10152,21 +9486,18 @@
       <c r="H222" s="4">
         <v>0</v>
       </c>
-      <c r="I222" s="4">
-        <v>0</v>
-      </c>
-      <c r="J222" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I222" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J222" s="4"/>
       <c r="K222" s="4"/>
-      <c r="L222" s="4"/>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="99" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B223" s="99" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>23</v>
@@ -10186,18 +9517,15 @@
       <c r="H223" s="4">
         <v>0</v>
       </c>
-      <c r="I223" s="4">
-        <v>0</v>
-      </c>
-      <c r="J223" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I223" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J223" s="4"/>
       <c r="K223" s="4"/>
-      <c r="L223" s="4"/>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="99" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B224" s="99" t="s">
         <v>82</v>
@@ -10220,21 +9548,18 @@
       <c r="H224" s="4">
         <v>0</v>
       </c>
-      <c r="I224" s="4">
-        <v>0</v>
-      </c>
-      <c r="J224" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I224" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J224" s="4"/>
       <c r="K224" s="4"/>
-      <c r="L224" s="4"/>
-    </row>
-    <row r="225" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="99" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B225" s="99" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>23</v>
@@ -10254,21 +9579,18 @@
       <c r="H225" s="4">
         <v>0</v>
       </c>
-      <c r="I225" s="4">
-        <v>0</v>
-      </c>
-      <c r="J225" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I225" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J225" s="4"/>
       <c r="K225" s="4"/>
-      <c r="L225" s="4"/>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="99" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B226" s="99" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>23</v>
@@ -10288,21 +9610,18 @@
       <c r="H226" s="4">
         <v>0</v>
       </c>
-      <c r="I226" s="4">
-        <v>0</v>
-      </c>
-      <c r="J226" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I226" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J226" s="4"/>
       <c r="K226" s="4"/>
-      <c r="L226" s="4"/>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="99" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B227" s="99" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>23</v>
@@ -10322,18 +9641,15 @@
       <c r="H227" s="4">
         <v>0</v>
       </c>
-      <c r="I227" s="4">
-        <v>0</v>
-      </c>
-      <c r="J227" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I227" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J227" s="4"/>
       <c r="K227" s="4"/>
-      <c r="L227" s="4"/>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B228" s="97" t="s">
         <v>83</v>
@@ -10356,18 +9672,15 @@
       <c r="H228" s="4">
         <v>0</v>
       </c>
-      <c r="I228" s="4">
-        <v>0</v>
-      </c>
-      <c r="J228" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I228" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J228" s="4"/>
       <c r="K228" s="4"/>
-      <c r="L228" s="4"/>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="99" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B229" s="99" t="s">
         <v>84</v>
@@ -10390,21 +9703,18 @@
       <c r="H229" s="4">
         <v>0</v>
       </c>
-      <c r="I229" s="4">
-        <v>0</v>
-      </c>
-      <c r="J229" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I229" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J229" s="4"/>
       <c r="K229" s="4"/>
-      <c r="L229" s="4"/>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="100" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B230" s="100" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>36</v>
@@ -10424,18 +9734,15 @@
       <c r="H230" s="4">
         <v>0</v>
       </c>
-      <c r="I230" s="4">
-        <v>0</v>
-      </c>
-      <c r="J230" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I230" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J230" s="4"/>
       <c r="K230" s="4"/>
-      <c r="L230" s="4"/>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="102" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B231" s="102" t="s">
         <v>85</v>
@@ -10458,18 +9765,15 @@
       <c r="H231" s="4">
         <v>0</v>
       </c>
-      <c r="I231" s="4">
-        <v>0</v>
-      </c>
-      <c r="J231" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I231" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J231" s="4"/>
       <c r="K231" s="4"/>
-      <c r="L231" s="4"/>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="101" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B232" s="101" t="s">
         <v>86</v>
@@ -10492,21 +9796,18 @@
       <c r="H232" s="4">
         <v>0</v>
       </c>
-      <c r="I232" s="4">
-        <v>0</v>
-      </c>
-      <c r="J232" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I232" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J232" s="4"/>
       <c r="K232" s="4"/>
-      <c r="L232" s="4"/>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="103" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B233" s="104" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>36</v>
@@ -10526,18 +9827,15 @@
       <c r="H233" s="4">
         <v>0</v>
       </c>
-      <c r="I233" s="4">
-        <v>0</v>
-      </c>
-      <c r="J233" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I233" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J233" s="4"/>
       <c r="K233" s="4"/>
-      <c r="L233" s="4"/>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="105" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B234" s="105" t="s">
         <v>87</v>
@@ -10560,18 +9858,15 @@
       <c r="H234" s="4">
         <v>0</v>
       </c>
-      <c r="I234" s="4">
-        <v>0</v>
-      </c>
-      <c r="J234" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I234" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J234" s="4"/>
       <c r="K234" s="4"/>
-      <c r="L234" s="4"/>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B235" s="98" t="s">
         <v>88</v>
@@ -10594,21 +9889,18 @@
       <c r="H235" s="4">
         <v>0</v>
       </c>
-      <c r="I235" s="4">
-        <v>0</v>
-      </c>
-      <c r="J235" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I235" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J235" s="4"/>
       <c r="K235" s="4"/>
-      <c r="L235" s="4"/>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B236" s="106" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>36</v>
@@ -10628,18 +9920,15 @@
       <c r="H236" s="4">
         <v>0</v>
       </c>
-      <c r="I236" s="4">
-        <v>0</v>
-      </c>
-      <c r="J236" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I236" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J236" s="4"/>
       <c r="K236" s="4"/>
-      <c r="L236" s="4"/>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B237" s="108" t="s">
         <v>89</v>
@@ -10662,18 +9951,15 @@
       <c r="H237" s="4">
         <v>0</v>
       </c>
-      <c r="I237" s="4">
-        <v>0</v>
-      </c>
-      <c r="J237" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I237" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J237" s="4"/>
       <c r="K237" s="4"/>
-      <c r="L237" s="4"/>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B238" s="109" t="s">
         <v>90</v>
@@ -10696,18 +9982,15 @@
       <c r="H238" s="4">
         <v>0</v>
       </c>
-      <c r="I238" s="4">
-        <v>0</v>
-      </c>
-      <c r="J238" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I238" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J238" s="4"/>
       <c r="K238" s="4"/>
-      <c r="L238" s="4"/>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B239" s="107" t="s">
         <v>91</v>
@@ -10730,21 +10013,18 @@
       <c r="H239" s="4">
         <v>0</v>
       </c>
-      <c r="I239" s="4">
-        <v>0</v>
-      </c>
-      <c r="J239" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I239" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J239" s="4"/>
       <c r="K239" s="4"/>
-      <c r="L239" s="4"/>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B240" s="110" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>36</v>
@@ -10764,18 +10044,15 @@
       <c r="H240" s="4">
         <v>0</v>
       </c>
-      <c r="I240" s="4">
-        <v>0</v>
-      </c>
-      <c r="J240" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I240" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J240" s="4"/>
       <c r="K240" s="4"/>
-      <c r="L240" s="4"/>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B241" s="111" t="s">
         <v>92</v>
@@ -10798,18 +10075,15 @@
       <c r="H241" s="4">
         <v>0</v>
       </c>
-      <c r="I241" s="4">
-        <v>0</v>
-      </c>
-      <c r="J241" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I241" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J241" s="4"/>
       <c r="K241" s="4"/>
-      <c r="L241" s="4"/>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B242" s="114" t="s">
         <v>93</v>
@@ -10832,21 +10106,18 @@
       <c r="H242" s="4">
         <v>0</v>
       </c>
-      <c r="I242" s="4">
-        <v>0</v>
-      </c>
-      <c r="J242" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I242" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J242" s="4"/>
       <c r="K242" s="4"/>
-      <c r="L242" s="4"/>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B243" s="113" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>36</v>
@@ -10866,21 +10137,18 @@
       <c r="H243" s="4">
         <v>0</v>
       </c>
-      <c r="I243" s="4">
-        <v>0</v>
-      </c>
-      <c r="J243" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I243" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J243" s="4"/>
       <c r="K243" s="4"/>
-      <c r="L243" s="4"/>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B244" s="112" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>36</v>
@@ -10900,18 +10168,15 @@
       <c r="H244" s="4">
         <v>0</v>
       </c>
-      <c r="I244" s="4">
-        <v>0</v>
-      </c>
-      <c r="J244" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I244" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J244" s="4"/>
       <c r="K244" s="4"/>
-      <c r="L244" s="4"/>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B245" s="115" t="s">
         <v>94</v>
@@ -10934,21 +10199,18 @@
       <c r="H245" s="4">
         <v>0</v>
       </c>
-      <c r="I245" s="4">
-        <v>0</v>
-      </c>
-      <c r="J245" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I245" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J245" s="4"/>
       <c r="K245" s="4"/>
-      <c r="L245" s="4"/>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B246" s="116" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>36</v>
@@ -10968,18 +10230,15 @@
       <c r="H246" s="4">
         <v>0</v>
       </c>
-      <c r="I246" s="4">
-        <v>0</v>
-      </c>
-      <c r="J246" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I246" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J246" s="4"/>
       <c r="K246" s="4"/>
-      <c r="L246" s="4"/>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B247" s="117" t="s">
         <v>96</v>
@@ -11002,21 +10261,18 @@
       <c r="H247" s="4">
         <v>0</v>
       </c>
-      <c r="I247" s="4">
-        <v>0</v>
-      </c>
-      <c r="J247" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="K247" s="4"/>
-      <c r="L247" s="9"/>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I247" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J247" s="4"/>
+      <c r="K247" s="9"/>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B248" s="118" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>36</v>
@@ -11036,18 +10292,15 @@
       <c r="H248" s="4">
         <v>0</v>
       </c>
-      <c r="I248" s="4">
-        <v>0</v>
-      </c>
-      <c r="J248" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I248" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J248" s="4"/>
       <c r="K248" s="4"/>
-      <c r="L248" s="4"/>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B249" s="119" t="s">
         <v>97</v>
@@ -11070,21 +10323,18 @@
       <c r="H249" s="4">
         <v>0</v>
       </c>
-      <c r="I249" s="4">
-        <v>0</v>
-      </c>
-      <c r="J249" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I249" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J249" s="4"/>
       <c r="K249" s="4"/>
-      <c r="L249" s="4"/>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B250" s="120" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>36</v>
@@ -11104,21 +10354,18 @@
       <c r="H250" s="4">
         <v>0</v>
       </c>
-      <c r="I250" s="4">
-        <v>0</v>
-      </c>
-      <c r="J250" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I250" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J250" s="4"/>
       <c r="K250" s="4"/>
-      <c r="L250" s="4"/>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B251" s="124" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>3</v>
@@ -11138,21 +10385,18 @@
       <c r="H251" s="4">
         <v>0</v>
       </c>
-      <c r="I251" s="4">
-        <v>0</v>
-      </c>
-      <c r="J251" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I251" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J251" s="4"/>
       <c r="K251" s="4"/>
-      <c r="L251" s="4"/>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="122" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B252" s="123" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>3</v>
@@ -11172,21 +10416,18 @@
       <c r="H252" s="4">
         <v>0</v>
       </c>
-      <c r="I252" s="4">
-        <v>0</v>
-      </c>
-      <c r="J252" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I252" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J252" s="4"/>
       <c r="K252" s="4"/>
-      <c r="L252" s="4"/>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B253" s="121" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>3</v>
@@ -11206,18 +10447,15 @@
       <c r="H253" s="4">
         <v>0</v>
       </c>
-      <c r="I253" s="4">
-        <v>0</v>
-      </c>
-      <c r="J253" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I253" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J253" s="4"/>
       <c r="K253" s="4"/>
-      <c r="L253" s="4"/>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B254" s="122" t="s">
         <v>100</v>
@@ -11240,21 +10478,18 @@
       <c r="H254" s="4">
         <v>0</v>
       </c>
-      <c r="I254" s="4">
-        <v>0</v>
-      </c>
-      <c r="J254" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I254" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J254" s="4"/>
       <c r="K254" s="4"/>
-      <c r="L254" s="4"/>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B255" s="126" t="s">
         <v>546</v>
-      </c>
-      <c r="B255" s="126" t="s">
-        <v>547</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>3</v>
@@ -11274,21 +10509,18 @@
       <c r="H255" s="4">
         <v>0</v>
       </c>
-      <c r="I255" s="4">
-        <v>0</v>
-      </c>
-      <c r="J255" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I255" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J255" s="4"/>
       <c r="K255" s="4"/>
-      <c r="L255" s="4"/>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B256" s="127" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>3</v>
@@ -11308,21 +10540,18 @@
       <c r="H256" s="4">
         <v>0</v>
       </c>
-      <c r="I256" s="4">
-        <v>0</v>
-      </c>
-      <c r="J256" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I256" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J256" s="4"/>
       <c r="K256" s="4"/>
-      <c r="L256" s="4"/>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B257" s="126" t="s">
         <v>544</v>
-      </c>
-      <c r="B257" s="126" t="s">
-        <v>545</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>3</v>
@@ -11342,18 +10571,15 @@
       <c r="H257" s="4">
         <v>0</v>
       </c>
-      <c r="I257" s="4">
-        <v>0</v>
-      </c>
-      <c r="J257" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I257" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J257" s="4"/>
       <c r="K257" s="4"/>
-      <c r="L257" s="4"/>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="126" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B258" s="125" t="s">
         <v>102</v>
@@ -11376,21 +10602,18 @@
       <c r="H258" s="4">
         <v>0</v>
       </c>
-      <c r="I258" s="4">
-        <v>0</v>
-      </c>
-      <c r="J258" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I258" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J258" s="4"/>
       <c r="K258" s="4"/>
-      <c r="L258" s="4"/>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="126" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B259" s="126" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>3</v>
@@ -11410,18 +10633,15 @@
       <c r="H259" s="4">
         <v>0</v>
       </c>
-      <c r="I259" s="4">
-        <v>0</v>
-      </c>
-      <c r="J259" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I259" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J259" s="4"/>
       <c r="K259" s="4"/>
-      <c r="L259" s="4"/>
-    </row>
-    <row r="260" spans="1:12" s="197" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="260" spans="1:11" s="197" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="198" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B260" s="198" t="s">
         <v>101</v>
@@ -11444,21 +10664,18 @@
       <c r="H260" s="200">
         <v>0</v>
       </c>
-      <c r="I260" s="200">
-        <v>0</v>
-      </c>
-      <c r="J260" s="200" t="s">
-        <v>135</v>
-      </c>
+      <c r="I260" s="200" t="s">
+        <v>134</v>
+      </c>
+      <c r="J260" s="200"/>
       <c r="K260" s="200"/>
-      <c r="L260" s="200"/>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="131" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B261" s="131" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>3</v>
@@ -11478,21 +10695,18 @@
       <c r="H261" s="4">
         <v>0</v>
       </c>
-      <c r="I261" s="4">
-        <v>0</v>
-      </c>
-      <c r="J261" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I261" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J261" s="4"/>
       <c r="K261" s="4"/>
-      <c r="L261" s="4"/>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="128" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B262" s="129" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>3</v>
@@ -11512,21 +10726,18 @@
       <c r="H262" s="4">
         <v>0</v>
       </c>
-      <c r="I262" s="4">
-        <v>0</v>
-      </c>
-      <c r="J262" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="K262" s="4"/>
-      <c r="L262" s="6"/>
-    </row>
-    <row r="263" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I262" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J262" s="4"/>
+      <c r="K262" s="6"/>
+    </row>
+    <row r="263" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B263" s="130" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>3</v>
@@ -11546,18 +10757,15 @@
       <c r="H263" s="4">
         <v>0</v>
       </c>
-      <c r="I263" s="4">
-        <v>0</v>
-      </c>
-      <c r="J263" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="K263" s="4"/>
-      <c r="L263" s="10"/>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I263" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J263" s="4"/>
+      <c r="K263" s="10"/>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B264" s="133" t="s">
         <v>105</v>
@@ -11580,21 +10788,18 @@
       <c r="H264" s="4">
         <v>0</v>
       </c>
-      <c r="I264" s="4">
-        <v>0</v>
-      </c>
-      <c r="J264" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I264" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J264" s="4"/>
       <c r="K264" s="4"/>
-      <c r="L264" s="4"/>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="135" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B265" s="135" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>3</v>
@@ -11614,21 +10819,18 @@
       <c r="H265" s="4">
         <v>0</v>
       </c>
-      <c r="I265" s="4">
-        <v>0</v>
-      </c>
-      <c r="J265" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I265" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J265" s="4"/>
       <c r="K265" s="4"/>
-      <c r="L265" s="4"/>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B266" s="132" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>3</v>
@@ -11648,18 +10850,15 @@
       <c r="H266" s="4">
         <v>0</v>
       </c>
-      <c r="I266" s="4">
-        <v>0</v>
-      </c>
-      <c r="J266" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I266" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J266" s="4"/>
       <c r="K266" s="4"/>
-      <c r="L266" s="4"/>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B267" s="135" t="s">
         <v>106</v>
@@ -11682,21 +10881,18 @@
       <c r="H267" s="4">
         <v>0</v>
       </c>
-      <c r="I267" s="4">
-        <v>0</v>
-      </c>
-      <c r="J267" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I267" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J267" s="4"/>
       <c r="K267" s="4"/>
-      <c r="L267" s="4"/>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B268" s="134" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>3</v>
@@ -11716,18 +10912,15 @@
       <c r="H268" s="4">
         <v>0</v>
       </c>
-      <c r="I268" s="4">
-        <v>0</v>
-      </c>
-      <c r="J268" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I268" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J268" s="4"/>
       <c r="K268" s="4"/>
-      <c r="L268" s="4"/>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B269" s="136" t="s">
         <v>107</v>
@@ -11750,18 +10943,15 @@
       <c r="H269" s="4">
         <v>0</v>
       </c>
-      <c r="I269" s="4">
-        <v>0</v>
-      </c>
-      <c r="J269" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I269" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J269" s="4"/>
       <c r="K269" s="4"/>
-      <c r="L269" s="4"/>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B270" s="137" t="s">
         <v>108</v>
@@ -11784,21 +10974,18 @@
       <c r="H270" s="4">
         <v>0</v>
       </c>
-      <c r="I270" s="4">
-        <v>0</v>
-      </c>
-      <c r="J270" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I270" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J270" s="4"/>
       <c r="K270" s="4"/>
-      <c r="L270" s="4"/>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B271" s="139" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>3</v>
@@ -11818,21 +11005,18 @@
       <c r="H271" s="4">
         <v>0</v>
       </c>
-      <c r="I271" s="4">
-        <v>0</v>
-      </c>
-      <c r="J271" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I271" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J271" s="4"/>
       <c r="K271" s="4"/>
-      <c r="L271" s="4"/>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B272" s="138" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>3</v>
@@ -11852,18 +11036,15 @@
       <c r="H272" s="4">
         <v>0</v>
       </c>
-      <c r="I272" s="4">
-        <v>0</v>
-      </c>
-      <c r="J272" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I272" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J272" s="4"/>
       <c r="K272" s="4"/>
-      <c r="L272" s="4"/>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B273" s="140" t="s">
         <v>109</v>
@@ -11886,21 +11067,18 @@
       <c r="H273" s="4">
         <v>0</v>
       </c>
-      <c r="I273" s="4">
-        <v>0</v>
-      </c>
-      <c r="J273" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I273" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J273" s="4"/>
       <c r="K273" s="4"/>
-      <c r="L273" s="4"/>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B274" s="143" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>3</v>
@@ -11920,21 +11098,18 @@
       <c r="H274" s="4">
         <v>0</v>
       </c>
-      <c r="I274" s="4">
-        <v>0</v>
-      </c>
-      <c r="J274" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I274" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J274" s="4"/>
       <c r="K274" s="4"/>
-      <c r="L274" s="4"/>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="141" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B275" s="142" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>3</v>
@@ -11954,21 +11129,18 @@
       <c r="H275" s="4">
         <v>0</v>
       </c>
-      <c r="I275" s="4">
-        <v>0</v>
-      </c>
-      <c r="J275" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I275" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J275" s="4"/>
       <c r="K275" s="4"/>
-      <c r="L275" s="4"/>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B276" s="144" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>3</v>
@@ -11988,21 +11160,18 @@
       <c r="H276" s="4">
         <v>0</v>
       </c>
-      <c r="I276" s="4">
-        <v>0</v>
-      </c>
-      <c r="J276" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I276" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J276" s="4"/>
       <c r="K276" s="4"/>
-      <c r="L276" s="4"/>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="146" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B277" s="147" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>23</v>
@@ -12022,21 +11191,18 @@
       <c r="H277" s="4">
         <v>0</v>
       </c>
-      <c r="I277" s="4">
-        <v>0</v>
-      </c>
-      <c r="J277" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I277" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J277" s="4"/>
       <c r="K277" s="4"/>
-      <c r="L277" s="4"/>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="B278" s="150" t="s">
         <v>584</v>
-      </c>
-      <c r="B278" s="150" t="s">
-        <v>585</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>23</v>
@@ -12056,21 +11222,18 @@
       <c r="H278" s="4">
         <v>0</v>
       </c>
-      <c r="I278" s="4">
-        <v>0</v>
-      </c>
-      <c r="J278" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I278" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J278" s="4"/>
       <c r="K278" s="4"/>
-      <c r="L278" s="4"/>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="148" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B279" s="149" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>23</v>
@@ -12090,18 +11253,15 @@
       <c r="H279" s="4">
         <v>0</v>
       </c>
-      <c r="I279" s="4">
-        <v>0</v>
-      </c>
-      <c r="J279" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I279" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J279" s="4"/>
       <c r="K279" s="4"/>
-      <c r="L279" s="4"/>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B280" s="145" t="s">
         <v>110</v>
@@ -12124,21 +11284,18 @@
       <c r="H280" s="4">
         <v>0</v>
       </c>
-      <c r="I280" s="4">
-        <v>0</v>
-      </c>
-      <c r="J280" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I280" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J280" s="4"/>
       <c r="K280" s="4"/>
-      <c r="L280" s="4"/>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="156" t="s">
+        <v>595</v>
+      </c>
+      <c r="B281" s="157" t="s">
         <v>596</v>
-      </c>
-      <c r="B281" s="157" t="s">
-        <v>597</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>23</v>
@@ -12158,18 +11315,15 @@
       <c r="H281" s="4">
         <v>0</v>
       </c>
-      <c r="I281" s="4">
-        <v>0</v>
-      </c>
-      <c r="J281" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I281" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J281" s="4"/>
       <c r="K281" s="4"/>
-      <c r="L281" s="4"/>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="152" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B282" s="152" t="s">
         <v>111</v>
@@ -12192,21 +11346,18 @@
       <c r="H282" s="4">
         <v>0</v>
       </c>
-      <c r="I282" s="4">
-        <v>0</v>
-      </c>
-      <c r="J282" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I282" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J282" s="4"/>
       <c r="K282" s="4"/>
-      <c r="L282" s="4"/>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B283" s="151" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>23</v>
@@ -12226,18 +11377,15 @@
       <c r="H283" s="4">
         <v>0</v>
       </c>
-      <c r="I283" s="4">
-        <v>0</v>
-      </c>
-      <c r="J283" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I283" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J283" s="4"/>
       <c r="K283" s="4"/>
-      <c r="L283" s="4"/>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="152" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B284" s="153" t="s">
         <v>112</v>
@@ -12260,21 +11408,18 @@
       <c r="H284" s="4">
         <v>0</v>
       </c>
-      <c r="I284" s="4">
-        <v>0</v>
-      </c>
-      <c r="J284" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I284" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J284" s="4"/>
       <c r="K284" s="4"/>
-      <c r="L284" s="4"/>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="154" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B285" s="155" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>23</v>
@@ -12294,18 +11439,15 @@
       <c r="H285" s="4">
         <v>0</v>
       </c>
-      <c r="I285" s="4">
-        <v>0</v>
-      </c>
-      <c r="J285" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I285" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J285" s="4"/>
       <c r="K285" s="4"/>
-      <c r="L285" s="4"/>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="156" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B286" s="156" t="s">
         <v>113</v>
@@ -12328,18 +11470,15 @@
       <c r="H286" s="4">
         <v>0</v>
       </c>
-      <c r="I286" s="4">
-        <v>0</v>
-      </c>
-      <c r="J286" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I286" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J286" s="4"/>
       <c r="K286" s="4"/>
-      <c r="L286" s="4"/>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="160" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B287" s="161" t="s">
         <v>114</v>
@@ -12362,21 +11501,18 @@
       <c r="H287" s="4">
         <v>0</v>
       </c>
-      <c r="I287" s="4">
-        <v>0</v>
-      </c>
-      <c r="J287" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I287" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J287" s="4"/>
       <c r="K287" s="4"/>
-      <c r="L287" s="4"/>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="162" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B288" s="163" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>23</v>
@@ -12396,21 +11532,18 @@
       <c r="H288" s="4">
         <v>0</v>
       </c>
-      <c r="I288" s="4">
-        <v>0</v>
-      </c>
-      <c r="J288" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I288" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J288" s="4"/>
       <c r="K288" s="4"/>
-      <c r="L288" s="4"/>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="158" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B289" s="159" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>23</v>
@@ -12430,21 +11563,18 @@
       <c r="H289" s="4">
         <v>0</v>
       </c>
-      <c r="I289" s="4">
-        <v>0</v>
-      </c>
-      <c r="J289" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I289" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J289" s="4"/>
       <c r="K289" s="4"/>
-      <c r="L289" s="4"/>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="164" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B290" s="165" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>23</v>
@@ -12464,21 +11594,18 @@
       <c r="H290" s="4">
         <v>0</v>
       </c>
-      <c r="I290" s="4">
-        <v>0</v>
-      </c>
-      <c r="J290" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I290" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J290" s="4"/>
       <c r="K290" s="4"/>
-      <c r="L290" s="4"/>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="168" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B291" s="169" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>23</v>
@@ -12498,21 +11625,18 @@
       <c r="H291" s="4">
         <v>0</v>
       </c>
-      <c r="I291" s="4">
-        <v>0</v>
-      </c>
-      <c r="J291" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I291" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J291" s="4"/>
       <c r="K291" s="4"/>
-      <c r="L291" s="4"/>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="166" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B292" s="167" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>23</v>
@@ -12532,18 +11656,15 @@
       <c r="H292" s="4">
         <v>0</v>
       </c>
-      <c r="I292" s="4">
-        <v>0</v>
-      </c>
-      <c r="J292" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I292" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J292" s="4"/>
       <c r="K292" s="4"/>
-      <c r="L292" s="4"/>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="170" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B293" s="171" t="s">
         <v>115</v>
@@ -12566,18 +11687,15 @@
       <c r="H293" s="4">
         <v>0</v>
       </c>
-      <c r="I293" s="4">
-        <v>0</v>
-      </c>
-      <c r="J293" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I293" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J293" s="4"/>
       <c r="K293" s="4"/>
-      <c r="L293" s="4"/>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="172" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B294" s="173" t="s">
         <v>116</v>
@@ -12600,18 +11718,15 @@
       <c r="H294" s="4">
         <v>0</v>
       </c>
-      <c r="I294" s="4">
-        <v>0</v>
-      </c>
-      <c r="J294" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I294" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J294" s="4"/>
       <c r="K294" s="4"/>
-      <c r="L294" s="4"/>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="173" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B295" s="173" t="s">
         <v>117</v>
@@ -12634,21 +11749,18 @@
       <c r="H295" s="4">
         <v>0</v>
       </c>
-      <c r="I295" s="4">
-        <v>0</v>
-      </c>
-      <c r="J295" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I295" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J295" s="4"/>
       <c r="K295" s="4"/>
-      <c r="L295" s="4"/>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="173" t="s">
+        <v>606</v>
+      </c>
+      <c r="B296" s="173" t="s">
         <v>607</v>
-      </c>
-      <c r="B296" s="173" t="s">
-        <v>608</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>23</v>
@@ -12668,21 +11780,18 @@
       <c r="H296" s="4">
         <v>0</v>
       </c>
-      <c r="I296" s="4">
-        <v>0</v>
-      </c>
-      <c r="J296" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I296" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J296" s="4"/>
       <c r="K296" s="4"/>
-      <c r="L296" s="4"/>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="173" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B297" s="173" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>23</v>
@@ -12702,21 +11811,18 @@
       <c r="H297" s="4">
         <v>0</v>
       </c>
-      <c r="I297" s="4">
-        <v>0</v>
-      </c>
-      <c r="J297" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I297" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J297" s="4"/>
       <c r="K297" s="4"/>
-      <c r="L297" s="4"/>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="173" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B298" s="173" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>23</v>
@@ -12736,18 +11842,15 @@
       <c r="H298" s="4">
         <v>0</v>
       </c>
-      <c r="I298" s="4">
-        <v>0</v>
-      </c>
-      <c r="J298" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I298" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J298" s="4"/>
       <c r="K298" s="4"/>
-      <c r="L298" s="4"/>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="173" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B299" s="173" t="s">
         <v>118</v>
@@ -12770,18 +11873,15 @@
       <c r="H299" s="4">
         <v>0</v>
       </c>
-      <c r="I299" s="4">
-        <v>0</v>
-      </c>
-      <c r="J299" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I299" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J299" s="4"/>
       <c r="K299" s="4"/>
-      <c r="L299" s="4"/>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="173" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B300" s="173" t="s">
         <v>119</v>
@@ -12804,21 +11904,18 @@
       <c r="H300" s="4">
         <v>0</v>
       </c>
-      <c r="I300" s="4">
-        <v>0</v>
-      </c>
-      <c r="J300" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I300" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J300" s="4"/>
       <c r="K300" s="4"/>
-      <c r="L300" s="4"/>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="173" t="s">
+        <v>619</v>
+      </c>
+      <c r="B301" s="173" t="s">
         <v>620</v>
-      </c>
-      <c r="B301" s="173" t="s">
-        <v>621</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>36</v>
@@ -12838,18 +11935,15 @@
       <c r="H301" s="4">
         <v>0</v>
       </c>
-      <c r="I301" s="4">
-        <v>0</v>
-      </c>
-      <c r="J301" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I301" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J301" s="4"/>
       <c r="K301" s="4"/>
-      <c r="L301" s="4"/>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="173" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B302" s="173" t="s">
         <v>120</v>
@@ -12872,21 +11966,18 @@
       <c r="H302" s="4">
         <v>0</v>
       </c>
-      <c r="I302" s="4">
-        <v>0</v>
-      </c>
-      <c r="J302" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I302" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J302" s="4"/>
       <c r="K302" s="4"/>
-      <c r="L302" s="4"/>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="173" t="s">
+        <v>617</v>
+      </c>
+      <c r="B303" s="173" t="s">
         <v>618</v>
-      </c>
-      <c r="B303" s="173" t="s">
-        <v>619</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>36</v>
@@ -12906,18 +11997,15 @@
       <c r="H303" s="4">
         <v>0</v>
       </c>
-      <c r="I303" s="4">
-        <v>0</v>
-      </c>
-      <c r="J303" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I303" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J303" s="4"/>
       <c r="K303" s="4"/>
-      <c r="L303" s="4"/>
-    </row>
-    <row r="304" spans="1:12" s="200" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="304" spans="1:11" s="200" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A304" s="200" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B304" s="200" t="s">
         <v>121</v>
@@ -12940,19 +12028,16 @@
       <c r="H304" s="200">
         <v>0</v>
       </c>
-      <c r="I304" s="200">
-        <v>0</v>
+      <c r="I304" s="200" t="s">
+        <v>134</v>
       </c>
       <c r="J304" s="200" t="s">
-        <v>135</v>
-      </c>
-      <c r="K304" s="200" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="173" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B305" s="173" t="s">
         <v>122</v>
@@ -12975,21 +12060,18 @@
       <c r="H305" s="4">
         <v>0</v>
       </c>
-      <c r="I305" s="4">
-        <v>0</v>
-      </c>
-      <c r="J305" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I305" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J305" s="4"/>
       <c r="K305" s="4"/>
-      <c r="L305" s="4"/>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="173" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B306" s="173" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>36</v>
@@ -13009,21 +12091,18 @@
       <c r="H306" s="4">
         <v>0</v>
       </c>
-      <c r="I306" s="4">
-        <v>0</v>
-      </c>
-      <c r="J306" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I306" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J306" s="4"/>
       <c r="K306" s="4"/>
-      <c r="L306" s="4"/>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="173" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B307" s="181" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>36</v>
@@ -13043,21 +12122,18 @@
       <c r="H307" s="4">
         <v>0</v>
       </c>
-      <c r="I307" s="4">
-        <v>0</v>
-      </c>
-      <c r="J307" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I307" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J307" s="4"/>
       <c r="K307" s="4"/>
-      <c r="L307" s="4"/>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="182" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B308" s="182" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>36</v>
@@ -13077,21 +12153,18 @@
       <c r="H308" s="4">
         <v>0</v>
       </c>
-      <c r="I308" s="4">
-        <v>0</v>
-      </c>
-      <c r="J308" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I308" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J308" s="4"/>
       <c r="K308" s="4"/>
-      <c r="L308" s="4"/>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="177" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B309" s="178" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>36</v>
@@ -13111,21 +12184,18 @@
       <c r="H309" s="4">
         <v>0</v>
       </c>
-      <c r="I309" s="4">
-        <v>0</v>
-      </c>
-      <c r="J309" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I309" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J309" s="4"/>
       <c r="K309" s="4"/>
-      <c r="L309" s="4"/>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="185" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B310" s="186" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>36</v>
@@ -13145,21 +12215,18 @@
       <c r="H310" s="4">
         <v>0</v>
       </c>
-      <c r="I310" s="4">
-        <v>0</v>
-      </c>
-      <c r="J310" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I310" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J310" s="4"/>
       <c r="K310" s="4"/>
-      <c r="L310" s="4"/>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="183" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B311" s="184" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>36</v>
@@ -13179,21 +12246,18 @@
       <c r="H311" s="4">
         <v>0</v>
       </c>
-      <c r="I311" s="4">
-        <v>0</v>
-      </c>
-      <c r="J311" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I311" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J311" s="4"/>
       <c r="K311" s="4"/>
-      <c r="L311" s="4"/>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="179" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B312" s="180" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>36</v>
@@ -13213,18 +12277,15 @@
       <c r="H312" s="4">
         <v>0</v>
       </c>
-      <c r="I312" s="4">
-        <v>0</v>
-      </c>
-      <c r="J312" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I312" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J312" s="4"/>
       <c r="K312" s="4"/>
-      <c r="L312" s="4"/>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="175" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B313" s="176" t="s">
         <v>123</v>
@@ -13247,18 +12308,15 @@
       <c r="H313" s="4">
         <v>0</v>
       </c>
-      <c r="I313" s="4">
-        <v>0</v>
-      </c>
-      <c r="J313" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I313" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J313" s="4"/>
       <c r="K313" s="4"/>
-      <c r="L313" s="4"/>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="185" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B314" s="185" t="s">
         <v>124</v>
@@ -13281,18 +12339,15 @@
       <c r="H314" s="4">
         <v>0</v>
       </c>
-      <c r="I314" s="4">
-        <v>0</v>
-      </c>
-      <c r="J314" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I314" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J314" s="4"/>
       <c r="K314" s="4"/>
-      <c r="L314" s="4"/>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="185" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B315" s="185" t="s">
         <v>125</v>
@@ -13315,18 +12370,15 @@
       <c r="H315" s="4">
         <v>0</v>
       </c>
-      <c r="I315" s="4">
-        <v>0</v>
-      </c>
-      <c r="J315" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I315" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J315" s="4"/>
       <c r="K315" s="4"/>
-      <c r="L315" s="4"/>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="189" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B316" s="190" t="s">
         <v>126</v>
@@ -13349,21 +12401,18 @@
       <c r="H316" s="4">
         <v>0</v>
       </c>
-      <c r="I316" s="4">
-        <v>0</v>
-      </c>
-      <c r="J316" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I316" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J316" s="4"/>
       <c r="K316" s="4"/>
-      <c r="L316" s="4"/>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="189" t="s">
+        <v>644</v>
+      </c>
+      <c r="B317" s="5" t="s">
         <v>645</v>
-      </c>
-      <c r="B317" s="5" t="s">
-        <v>646</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>36</v>
@@ -13383,18 +12432,15 @@
       <c r="H317" s="4">
         <v>0</v>
       </c>
-      <c r="I317" s="4">
-        <v>0</v>
-      </c>
-      <c r="J317" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I317" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J317" s="4"/>
       <c r="K317" s="4"/>
-      <c r="L317" s="4"/>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="187" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B318" s="188" t="s">
         <v>127</v>
@@ -13417,18 +12463,15 @@
       <c r="H318" s="4">
         <v>0</v>
       </c>
-      <c r="I318" s="4">
-        <v>0</v>
-      </c>
-      <c r="J318" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I318" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J318" s="4"/>
       <c r="K318" s="4"/>
-      <c r="L318" s="4"/>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="195" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B319" s="195" t="s">
         <v>128</v>
@@ -13451,21 +12494,18 @@
       <c r="H319" s="4">
         <v>0</v>
       </c>
-      <c r="I319" s="4">
-        <v>0</v>
-      </c>
-      <c r="J319" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I319" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J319" s="4"/>
       <c r="K319" s="4"/>
-      <c r="L319" s="4"/>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="191" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B320" s="192" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>36</v>
@@ -13485,21 +12525,18 @@
       <c r="H320" s="4">
         <v>0</v>
       </c>
-      <c r="I320" s="4">
-        <v>0</v>
-      </c>
-      <c r="J320" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I320" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J320" s="4"/>
       <c r="K320" s="4"/>
-      <c r="L320" s="4"/>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="195" t="s">
+        <v>649</v>
+      </c>
+      <c r="B321" s="174" t="s">
         <v>650</v>
-      </c>
-      <c r="B321" s="174" t="s">
-        <v>651</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>36</v>
@@ -13519,21 +12556,18 @@
       <c r="H321" s="4">
         <v>0</v>
       </c>
-      <c r="I321" s="4">
-        <v>0</v>
-      </c>
-      <c r="J321" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I321" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J321" s="4"/>
       <c r="K321" s="4"/>
-      <c r="L321" s="4"/>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="195" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B322" s="196" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>36</v>
@@ -13553,18 +12587,15 @@
       <c r="H322" s="4">
         <v>0</v>
       </c>
-      <c r="I322" s="4">
-        <v>0</v>
-      </c>
-      <c r="J322" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I322" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J322" s="4"/>
       <c r="K322" s="4"/>
-      <c r="L322" s="4"/>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="193" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B323" s="194" t="s">
         <v>129</v>
@@ -13587,16 +12618,13 @@
       <c r="H323" s="4">
         <v>0</v>
       </c>
-      <c r="I323" s="4">
-        <v>0</v>
-      </c>
-      <c r="J323" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="I323" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J323" s="4"/>
       <c r="K323" s="4"/>
-      <c r="L323" s="4"/>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
@@ -13606,14 +12634,13 @@
       <c r="I324" s="4"/>
       <c r="J324" s="4"/>
       <c r="K324" s="4"/>
-      <c r="L324" s="4"/>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F325" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:J323">
-    <sortCondition ref="I279"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:I323">
+    <sortCondition ref="H279"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Data/Hyp & inclusion_Hyp/inclusion_Hyp.xlsx
+++ b/Data/Hyp & inclusion_Hyp/inclusion_Hyp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EliseSchramkowski\Documents\GitHub\thesis\Data\Hyp &amp; inclusion_Hyp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA04E99-BB36-4C4B-8BFA-30D6465581EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC894983-D545-4B45-81FC-66582D7F1B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15600" yWindow="3120" windowWidth="15120" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2673,8 +2673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L325"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/Hyp & inclusion_Hyp/inclusion_Hyp.xlsx
+++ b/Data/Hyp & inclusion_Hyp/inclusion_Hyp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EliseSchramkowski\Documents\GitHub\thesis\Data\Hyp &amp; inclusion_Hyp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC894983-D545-4B45-81FC-66582D7F1B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F00ACB0-4E4B-4782-BE57-4E8F3A2C95A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15600" yWindow="3120" windowWidth="15120" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Articles" sheetId="1" r:id="rId1"/>
@@ -2058,7 +2058,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2119,14 +2119,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2148,7 +2140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2356,7 +2348,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2673,8 +2664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A315" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6141,32 +6132,32 @@
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
     </row>
-    <row r="115" spans="1:11" s="201" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="201" t="s">
+    <row r="115" spans="1:11" s="200" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="200" t="s">
         <v>333</v>
       </c>
-      <c r="B115" s="201" t="s">
+      <c r="B115" s="200" t="s">
         <v>308</v>
       </c>
-      <c r="C115" s="201" t="s">
-        <v>3</v>
-      </c>
-      <c r="D115" s="201">
+      <c r="C115" s="200" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="200">
         <v>2016</v>
       </c>
-      <c r="E115" s="201">
+      <c r="E115" s="200">
         <v>5</v>
       </c>
-      <c r="F115" s="201">
-        <v>0</v>
-      </c>
-      <c r="G115" s="201">
-        <v>0</v>
-      </c>
-      <c r="H115" s="201">
-        <v>0</v>
-      </c>
-      <c r="I115" s="201" t="s">
+      <c r="F115" s="200">
+        <v>0</v>
+      </c>
+      <c r="G115" s="200">
+        <v>0</v>
+      </c>
+      <c r="H115" s="200">
+        <v>0</v>
+      </c>
+      <c r="I115" s="200" t="s">
         <v>134</v>
       </c>
     </row>
